--- a/me/7.Streaming-API-in-Salesforce.xlsx
+++ b/me/7.Streaming-API-in-Salesforce.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce-integration-with-external-systems\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D986FA-028C-437E-96BA-8C31E4BAA649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD29D1A4-1BF7-4D37-AA82-7C374DCCC439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Streaming-API-in-Salesforce" sheetId="1" r:id="rId1"/>
+    <sheet name="Import Maven Project" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>構成</t>
   </si>
@@ -301,6 +302,15 @@
   <si>
     <t>1.Create-a-push-topic-in-Salesforce.text</t>
   </si>
+  <si>
+    <t>2.Import-Maven-Project</t>
+  </si>
+  <si>
+    <t>EMP-Connector</t>
+  </si>
+  <si>
+    <t>Import Maven project</t>
+  </si>
 </sst>
 </file>
 
@@ -502,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -521,6 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,6 +968,275 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>40573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79329D8F-2129-B8E7-3B60-F8D1AC29641C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="681318" y="8477250"/>
+          <a:ext cx="10961594" cy="4707823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>199413</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>94609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{422643BA-800B-292A-8D43-C93CAE5BC02E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="13449300"/>
+          <a:ext cx="4895238" cy="5123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>27830</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>46894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15263A0-B4B6-7795-79A2-477B36038B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="18773775"/>
+          <a:ext cx="5961905" cy="5847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>217844</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>113555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A174A0-C388-69CA-1469-C61C96F47B42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="24822150"/>
+          <a:ext cx="9847619" cy="5961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104019</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>37369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{189D1D1F-4424-DE60-92E6-2B300166ED01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="30956250"/>
+          <a:ext cx="6047619" cy="5847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>100503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0830CA54-F541-0E33-B134-DA48F3565890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="747993" y="37052250"/>
+          <a:ext cx="11006978" cy="4196253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1222,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,4 +2084,301 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0409B733-084D-4F61-B938-2093BD541C60}">
+  <dimension ref="A4:I44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="D37" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="D39" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/7.Streaming-API-in-Salesforce.xlsx
+++ b/me/7.Streaming-API-in-Salesforce.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce-integration-with-external-systems\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD29D1A4-1BF7-4D37-AA82-7C374DCCC439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E5902E-9574-4A7C-8539-42013A78F99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Streaming-API-in-Salesforce" sheetId="1" r:id="rId1"/>
     <sheet name="Import Maven Project" sheetId="2" r:id="rId2"/>
+    <sheet name="Sending Data from Salesforce" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="138">
   <si>
     <t>構成</t>
   </si>
@@ -128,9 +129,6 @@
   </si>
   <si>
     <t>1.Create-a-push-topic-in-Salesforce</t>
-  </si>
-  <si>
-    <t>salesforce-integration-with-external-systems\7.Streaming-API-in-Salesforce\1.Create-a-push-topic-in-Salesforce</t>
   </si>
   <si>
     <t>PushTopic pushTopic=new PushTopic();</t>
@@ -310,6 +308,289 @@
   </si>
   <si>
     <t>Import Maven project</t>
+  </si>
+  <si>
+    <t>Sending Data from Salesforce to External System using Push Topics</t>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems\7.Streaming-API-in-Salesforce\2.Import-Maven-Project\EMP-Connector\src\main\java\com\salesforce\emp\connector\example\LoginExample.java</t>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Copyright (c) 2016, salesforce.com, inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * All rights reserved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Licensed under the BSD 3-Clause license.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * For full license text, see LICENSE.TXT file in the repo root  or https://opensource.org/licenses/BSD-3-Clause</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>package com.salesforce.emp.connector.example;</t>
+  </si>
+  <si>
+    <t>import static com.salesforce.emp.connector.LoginHelper.login;</t>
+  </si>
+  <si>
+    <t>import java.net.URL;</t>
+  </si>
+  <si>
+    <t>import java.util.Map;</t>
+  </si>
+  <si>
+    <t>import java.util.concurrent.TimeUnit;</t>
+  </si>
+  <si>
+    <t>import java.util.function.Consumer;</t>
+  </si>
+  <si>
+    <t>import org.eclipse.jetty.util.ajax.JSON;</t>
+  </si>
+  <si>
+    <t>import com.salesforce.emp.connector.BayeuxParameters;</t>
+  </si>
+  <si>
+    <t>import com.salesforce.emp.connector.EmpConnector;</t>
+  </si>
+  <si>
+    <t>import com.salesforce.emp.connector.LoginHelper;</t>
+  </si>
+  <si>
+    <t>import com.salesforce.emp.connector.TopicSubscription;</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * An example of using the EMP connector using login credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @author hal.hildebrand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @since API v37.0</t>
+  </si>
+  <si>
+    <t>public class LoginExample {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void main(String[] argv) throws Exception {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (argv.length &lt; 3 || argv.length &gt; 4) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.err.println("Usage: LoginExample username password topic [replayFrom]");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.exit(1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        long replayFrom = EmpConnector.REPLAY_FROM_EARLIEST;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        if (argv.length == 4) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            replayFrom = Long.parseLong(argv[3]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BearerTokenProvider tokenProvider = new BearerTokenProvider(() -&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            try {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                return login(argv[0], argv[1]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            } catch (Exception e) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                e.printStackTrace(System.err);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                System.exit(1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                throw new RuntimeException(e);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        });</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        BayeuxParameters params = tokenProvider.login();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Consumer&lt;Map&lt;String, Object&gt;&gt; consumer = event -&gt; System.out.println(String.format("Received:\n%s", JSON.toString(event)));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        EmpConnector connector = new EmpConnector(params);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        connector.setBearerTokenProvider(tokenProvider);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        connector.start().get(5, TimeUnit.SECONDS);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        TopicSubscription subscription = connector.subscribe(argv[2], replayFrom, consumer).get(5, TimeUnit.SECONDS);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println(String.format("Subscribed: %s", subscription));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>Login requires 2 parameters are username and password</t>
+  </si>
+  <si>
+    <t>argv[2] is what is the PushTopic we are subcribing</t>
+  </si>
+  <si>
+    <t>Login successful and subscribed</t>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems\7.Streaming-API-in-Salesforce\1.Create-a-push-topic-in-Salesforce\1.Create-a-push-topic-in-Salesforce.text</t>
+  </si>
+  <si>
+    <t>Anytime we update any of Student records, we update one of these fields we will get a notification</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pushTopic.Query='select </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id, Student_Name__c, Address__c, Phone_Number__c, Email__c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from Student__c';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Jat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Garg → Jat Garg</t>
+    </r>
+  </si>
+  <si>
+    <t>{"event":{"createdDate":"2023-02-25T22:15:26.055Z","replayId":1,"type":"updated"},"sobject":{"Student_Name__c":"Jat Garg","Id":"a0A5g000006PS3oEAG","Phone_Number__c":"5674532121","Address__c":"Canada","Email__c":"jatin@gmail.com"}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will get a notification and we got a notification that event, and it tells us what object, what is the name that has been updated to, and it tell us the type is updated </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We update which is not part of our PushTopic changes, we will change </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Class Enrolled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. In this case it should bot send us the notification at the Java execute because the query does not cover the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Class Enrolled</t>
+    </r>
+  </si>
+  <si>
+    <t>Update phone number and email</t>
+  </si>
+  <si>
+    <t>3456789090 → 456354657</t>
+  </si>
+  <si>
+    <t>harshitsharma@yahoo.com →　sim@gmail.com</t>
+  </si>
+  <si>
+    <t>Make change the account object even, the notification will not be sent to the Java because we have not subscribed, there is not PushTopic that we have to subscribe to related to the Account</t>
+  </si>
+  <si>
+    <t>Deepika Khanna -&gt; Deepika mytuto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no event has been or nothing has been received because we are not subscribed to any channel and there is no PushTopic account. So only when a student record changes and only specific field </t>
+  </si>
+  <si>
+    <t>on the student records changes, Java application gets the notification</t>
   </si>
 </sst>
 </file>
@@ -512,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -531,7 +812,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,6 +1529,1722 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>76999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF543879-8E8C-BD78-1154-011F06F646E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717096" y="21002625"/>
+          <a:ext cx="11202761" cy="5744374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>61223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{404EB7F1-486B-6F0F-C4FE-E49A8D73FF55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728943" y="26936701"/>
+          <a:ext cx="11082057" cy="5700022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82825</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>120968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>188077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610FB721-9411-9B80-A949-39DD7D27BBDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="687943" y="32886968"/>
+          <a:ext cx="11067027" cy="6925109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>483954</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>97298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8E5A80-FC01-5A38-C347-037485E6BAD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694764" y="40273941"/>
+          <a:ext cx="10076190" cy="1542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>469949</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BCCA0F-E91A-BFB0-1ACD-B6A509D05869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12304058" y="33057353"/>
+          <a:ext cx="8134773" cy="2061882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF0AAF2-F854-8F85-0770-43960CF223A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5871882" y="34301206"/>
+          <a:ext cx="9300883" cy="638735"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C91D718-611B-2BDC-A3BD-4DE9381EE142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8706971" y="34502912"/>
+          <a:ext cx="6510617" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>414112</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>78771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA85E9BD-0C56-70E4-30DB-2D7C5D0ACDE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12214412" y="31006676"/>
+          <a:ext cx="13009524" cy="1838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FDD3AA6-32E1-9EB5-865C-E172AAB16E04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9984441" y="32497059"/>
+          <a:ext cx="6645088" cy="2442882"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E21A5C-B672-AC5E-A6D1-B5633E56E824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3048000" y="42302206"/>
+          <a:ext cx="1860176" cy="773206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>303242</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>24067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E18E1D-66E2-6832-F9FE-B42F4C1374B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784413" y="45058853"/>
+          <a:ext cx="7990476" cy="4685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>291352</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>424823</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>59366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E7E1B9-DFFF-BF70-8D30-2CC6E1AB7539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="896470" y="50628176"/>
+          <a:ext cx="8000000" cy="4676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Arrow: Down 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71CEB3A-A594-513D-61C9-CA797587E76E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4258235" y="49866177"/>
+          <a:ext cx="347383" cy="661148"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7057BCE3-B530-9F34-8A43-3479140200A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="851647" y="45103676"/>
+          <a:ext cx="470647" cy="1624853"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57427DE7-F2E8-ACE4-52F2-CA9C59B9339E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1490382" y="45103676"/>
+          <a:ext cx="0" cy="7216589"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>366091</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>183037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B5522B-AE77-3A57-1CA4-AD90DE0B7AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="773206" y="56275942"/>
+          <a:ext cx="11695238" cy="1438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{153BF5AB-9603-5BB6-F9F5-1A39045AB4AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5782235" y="55962176"/>
+          <a:ext cx="1411941" cy="1501589"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{344710A2-AE68-F359-CE44-C246168BB7F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5804647" y="55984588"/>
+          <a:ext cx="4628029" cy="1479177"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4FAEB6-948E-238F-A1AF-22414A364952}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7227794" y="56007000"/>
+          <a:ext cx="1187824" cy="1445559"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8984EA-465C-257C-697A-14268BE56280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2958353" y="43232294"/>
+          <a:ext cx="560294" cy="15318441"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>369339</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>185972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAEC29A0-1BF0-7FBA-BD78-47DF9C80D593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717177" y="58774853"/>
+          <a:ext cx="8123809" cy="4847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>469624</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>39728</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE74019-D84E-094F-3C40-77F6EF2D6602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="750795" y="63895942"/>
+          <a:ext cx="8190476" cy="4914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>358249</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>72091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FC1A60-ECF6-FCFB-FD85-BC9AB9655A57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784412" y="69061853"/>
+          <a:ext cx="11676190" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>222004</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>67209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFDD6C6B-E603-2D98-544A-120063CE5C2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="750794" y="71762471"/>
+          <a:ext cx="7942857" cy="4695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>191751</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>14542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98501C10-E877-3EA0-2C1E-90BB54F228E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739589" y="76681852"/>
+          <a:ext cx="7923809" cy="4676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>412</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E81685-466E-BABC-7AAA-E9E69C7ACD31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1255059" y="74003647"/>
+          <a:ext cx="22412" cy="4639235"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76B4514C-8A8D-D9AB-A642-9C19CEDCC7FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1490382" y="74586353"/>
+          <a:ext cx="89647" cy="4684059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257396</xdr:colOff>
+      <xdr:row>437</xdr:row>
+      <xdr:rowOff>51337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAF4F63-F5CB-CAA1-2A20-A42F1FABB6B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="81623647"/>
+          <a:ext cx="11676190" cy="1676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>436</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC64DBD-B956-04E5-8F38-CF285DDE54C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1624853" y="79438500"/>
+          <a:ext cx="9491382" cy="3686735"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>413</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>436</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F47D95-8B06-C3A2-E0A1-7D5FC486E35E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="78833382"/>
+          <a:ext cx="6801971" cy="4258236"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>442</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>303242</xdr:colOff>
+      <xdr:row>467</xdr:row>
+      <xdr:rowOff>81778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5AA997B-06C0-B420-65F0-BAD5B0C390EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="784413" y="84369088"/>
+          <a:ext cx="7990476" cy="4676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>468</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317810</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>48160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE892C87-05EF-3B88-1C8C-0E1AD2E47E46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="818029" y="89288470"/>
+          <a:ext cx="7971428" cy="4676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E2A067-4422-12AB-C159-D596027640DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="773206" y="84167382"/>
+          <a:ext cx="526676" cy="1826559"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>477</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Arrow Connector 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D906097C-057C-6ABF-072E-C2A2180EC075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1568824" y="84178588"/>
+          <a:ext cx="358588" cy="6745941"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>497</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>506</xdr:row>
+      <xdr:rowOff>111045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A867C90C-7115-43CE-B9F7-28A5B33D7715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="750793" y="94756941"/>
+          <a:ext cx="11463619" cy="1747104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1502,8 +3510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T155"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,12 +3522,12 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1768,7 +3776,7 @@
       <c r="B40" s="4"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I40" s="5"/>
     </row>
@@ -1784,12 +3792,12 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1804,55 +3812,55 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L54" s="5"/>
     </row>
@@ -1871,15 +3879,15 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -1902,14 +3910,14 @@
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B60" s="13"/>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T60" s="5"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B61" s="14"/>
       <c r="C61" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -1931,10 +3939,10 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -1956,17 +3964,17 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B63" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T63" s="5"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B64" s="14"/>
       <c r="C64" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -1988,10 +3996,10 @@
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2014,7 +4022,7 @@
     <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66" s="14"/>
       <c r="C66" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -2036,10 +4044,10 @@
     </row>
     <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
@@ -2061,22 +4069,22 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2090,8 +4098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0409B733-084D-4F61-B938-2093BD541C60}">
   <dimension ref="A4:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,24 +4340,22 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="D37" s="18" t="s">
+      <c r="D37" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="18"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18" t="s">
-        <v>66</v>
+      <c r="E38" t="s">
+        <v>65</v>
       </c>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="D39" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" s="6"/>
       <c r="I39" s="5"/>
@@ -2358,7 +4364,7 @@
       <c r="B40" s="4"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I40" s="5"/>
     </row>
@@ -2374,7 +4380,6393 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E918D1-C782-46AF-B958-837CC577B667}">
+  <dimension ref="A2:V497"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A496" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U503" sqref="U503"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="19"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="27"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="5"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="5"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="5"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="5"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="5"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="5"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="5"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="5"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="5"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="5"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="5"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="5"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="5"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="5"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="5"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="5"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="5"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="5"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="5"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="5"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="5"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="5"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="5"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="5"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="5"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="5"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="5"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="5"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="28"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="5"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="5"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="5"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="5"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="5"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="5"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
+      <c r="N83" s="28"/>
+      <c r="O83" s="5"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="5"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="5"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="5"/>
+      <c r="P86" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="5"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="5"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="5"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="28"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="28"/>
+      <c r="O90" s="5"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="5"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="28"/>
+      <c r="O92" s="5"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="28"/>
+      <c r="O93" s="5"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="28"/>
+      <c r="O94" s="5"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="28"/>
+      <c r="M95" s="28"/>
+      <c r="N95" s="28"/>
+      <c r="O95" s="5"/>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28"/>
+      <c r="I96" s="28"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="28"/>
+      <c r="N96" s="28"/>
+      <c r="O96" s="5"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="28"/>
+      <c r="M97" s="28"/>
+      <c r="N97" s="28"/>
+      <c r="O97" s="5"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="28"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="28"/>
+      <c r="O98" s="5"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="28"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="28"/>
+      <c r="O99" s="5"/>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="28"/>
+      <c r="M100" s="28"/>
+      <c r="N100" s="28"/>
+      <c r="O100" s="5"/>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
+      <c r="K101" s="28"/>
+      <c r="L101" s="28"/>
+      <c r="M101" s="28"/>
+      <c r="N101" s="28"/>
+      <c r="O101" s="5"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="28"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="28"/>
+      <c r="N102" s="28"/>
+      <c r="O102" s="5"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="28"/>
+      <c r="J103" s="28"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="28"/>
+      <c r="M103" s="28"/>
+      <c r="N103" s="28"/>
+      <c r="O103" s="5"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="28"/>
+      <c r="N104" s="28"/>
+      <c r="O104" s="5"/>
+      <c r="P104" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="28"/>
+      <c r="L105" s="28"/>
+      <c r="M105" s="28"/>
+      <c r="N105" s="28"/>
+      <c r="O105" s="5"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="28"/>
+      <c r="J106" s="28"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="28"/>
+      <c r="M106" s="28"/>
+      <c r="N106" s="28"/>
+      <c r="O106" s="5"/>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="28"/>
+      <c r="N107" s="28"/>
+      <c r="O107" s="5"/>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="9"/>
+    </row>
+    <row r="211" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="222" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B222" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+      <c r="L222" s="2"/>
+      <c r="M222" s="2"/>
+      <c r="N222" s="2"/>
+      <c r="O222" s="2"/>
+      <c r="P222" s="2"/>
+      <c r="Q222" s="2"/>
+      <c r="R222" s="3"/>
+    </row>
+    <row r="223" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B223" s="4"/>
+      <c r="C223" s="28"/>
+      <c r="D223" s="28"/>
+      <c r="E223" s="28"/>
+      <c r="F223" s="28"/>
+      <c r="G223" s="28"/>
+      <c r="H223" s="28"/>
+      <c r="I223" s="28"/>
+      <c r="J223" s="28"/>
+      <c r="K223" s="28"/>
+      <c r="L223" s="28"/>
+      <c r="M223" s="28"/>
+      <c r="N223" s="28"/>
+      <c r="O223" s="28"/>
+      <c r="P223" s="28"/>
+      <c r="Q223" s="28"/>
+      <c r="R223" s="5"/>
+    </row>
+    <row r="224" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B224" s="4"/>
+      <c r="C224" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D224" s="28"/>
+      <c r="E224" s="28"/>
+      <c r="F224" s="28"/>
+      <c r="G224" s="28"/>
+      <c r="H224" s="28"/>
+      <c r="I224" s="28"/>
+      <c r="J224" s="28"/>
+      <c r="K224" s="28"/>
+      <c r="L224" s="28"/>
+      <c r="M224" s="28"/>
+      <c r="N224" s="28"/>
+      <c r="O224" s="28"/>
+      <c r="P224" s="28"/>
+      <c r="Q224" s="28"/>
+      <c r="R224" s="5"/>
+    </row>
+    <row r="225" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B225" s="4"/>
+      <c r="C225" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+      <c r="L225" s="2"/>
+      <c r="M225" s="3"/>
+      <c r="N225" s="28"/>
+      <c r="O225" s="28"/>
+      <c r="P225" s="28"/>
+      <c r="Q225" s="28"/>
+      <c r="R225" s="5"/>
+    </row>
+    <row r="226" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B226" s="4"/>
+      <c r="C226" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D226" s="28"/>
+      <c r="E226" s="28"/>
+      <c r="F226" s="28"/>
+      <c r="G226" s="28"/>
+      <c r="H226" s="28"/>
+      <c r="I226" s="28"/>
+      <c r="J226" s="28"/>
+      <c r="K226" s="28"/>
+      <c r="L226" s="28"/>
+      <c r="M226" s="5"/>
+      <c r="N226" s="28"/>
+      <c r="O226" s="28"/>
+      <c r="P226" s="28"/>
+      <c r="Q226" s="28"/>
+      <c r="R226" s="5"/>
+    </row>
+    <row r="227" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B227" s="4"/>
+      <c r="C227" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D227" s="28"/>
+      <c r="E227" s="28"/>
+      <c r="F227" s="28"/>
+      <c r="G227" s="28"/>
+      <c r="H227" s="28"/>
+      <c r="I227" s="28"/>
+      <c r="J227" s="28"/>
+      <c r="K227" s="28"/>
+      <c r="L227" s="28"/>
+      <c r="M227" s="5"/>
+      <c r="N227" s="28"/>
+      <c r="O227" s="28"/>
+      <c r="P227" s="28"/>
+      <c r="Q227" s="28"/>
+      <c r="R227" s="5"/>
+    </row>
+    <row r="228" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B228" s="4"/>
+      <c r="C228" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D228" s="28"/>
+      <c r="E228" s="28"/>
+      <c r="F228" s="28"/>
+      <c r="G228" s="28"/>
+      <c r="H228" s="28"/>
+      <c r="I228" s="28"/>
+      <c r="J228" s="28"/>
+      <c r="K228" s="28"/>
+      <c r="L228" s="28"/>
+      <c r="M228" s="5"/>
+      <c r="N228" s="28"/>
+      <c r="O228" s="28"/>
+      <c r="P228" s="28"/>
+      <c r="Q228" s="28"/>
+      <c r="R228" s="5"/>
+    </row>
+    <row r="229" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B229" s="4"/>
+      <c r="C229" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D229" s="28"/>
+      <c r="E229" s="28"/>
+      <c r="F229" s="28"/>
+      <c r="G229" s="28"/>
+      <c r="H229" s="28"/>
+      <c r="I229" s="28"/>
+      <c r="J229" s="28"/>
+      <c r="K229" s="28"/>
+      <c r="L229" s="28"/>
+      <c r="M229" s="5"/>
+      <c r="N229" s="28"/>
+      <c r="O229" s="28"/>
+      <c r="P229" s="28"/>
+      <c r="Q229" s="28"/>
+      <c r="R229" s="5"/>
+    </row>
+    <row r="230" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B230" s="4"/>
+      <c r="C230" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D230" s="28"/>
+      <c r="E230" s="28"/>
+      <c r="F230" s="28"/>
+      <c r="G230" s="28"/>
+      <c r="H230" s="28"/>
+      <c r="I230" s="28"/>
+      <c r="J230" s="28"/>
+      <c r="K230" s="28"/>
+      <c r="L230" s="28"/>
+      <c r="M230" s="5"/>
+      <c r="N230" s="28"/>
+      <c r="O230" s="28"/>
+      <c r="P230" s="28"/>
+      <c r="Q230" s="28"/>
+      <c r="R230" s="5"/>
+    </row>
+    <row r="231" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B231" s="4"/>
+      <c r="C231" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D231" s="28"/>
+      <c r="E231" s="28"/>
+      <c r="F231" s="28"/>
+      <c r="G231" s="28"/>
+      <c r="H231" s="28"/>
+      <c r="I231" s="28"/>
+      <c r="J231" s="28"/>
+      <c r="K231" s="28"/>
+      <c r="L231" s="28"/>
+      <c r="M231" s="5"/>
+      <c r="N231" s="28"/>
+      <c r="O231" s="28"/>
+      <c r="P231" s="28"/>
+      <c r="Q231" s="28"/>
+      <c r="R231" s="5"/>
+    </row>
+    <row r="232" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B232" s="4"/>
+      <c r="C232" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D232" s="28"/>
+      <c r="E232" s="28"/>
+      <c r="F232" s="28"/>
+      <c r="G232" s="28"/>
+      <c r="H232" s="28"/>
+      <c r="I232" s="28"/>
+      <c r="J232" s="28"/>
+      <c r="K232" s="28"/>
+      <c r="L232" s="28"/>
+      <c r="M232" s="5"/>
+      <c r="N232" s="28"/>
+      <c r="O232" s="28"/>
+      <c r="P232" s="28"/>
+      <c r="Q232" s="28"/>
+      <c r="R232" s="5"/>
+    </row>
+    <row r="233" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B233" s="4"/>
+      <c r="C233" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D233" s="28"/>
+      <c r="E233" s="28"/>
+      <c r="F233" s="28"/>
+      <c r="G233" s="28"/>
+      <c r="H233" s="28"/>
+      <c r="I233" s="28"/>
+      <c r="J233" s="28"/>
+      <c r="K233" s="28"/>
+      <c r="L233" s="28"/>
+      <c r="M233" s="5"/>
+      <c r="N233" s="28"/>
+      <c r="O233" s="28"/>
+      <c r="P233" s="28"/>
+      <c r="Q233" s="28"/>
+      <c r="R233" s="5"/>
+    </row>
+    <row r="234" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B234" s="4"/>
+      <c r="C234" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D234" s="28"/>
+      <c r="E234" s="28"/>
+      <c r="F234" s="28"/>
+      <c r="G234" s="28"/>
+      <c r="H234" s="28"/>
+      <c r="I234" s="28"/>
+      <c r="J234" s="28"/>
+      <c r="K234" s="28"/>
+      <c r="L234" s="28"/>
+      <c r="M234" s="5"/>
+      <c r="N234" s="28"/>
+      <c r="O234" s="28"/>
+      <c r="P234" s="28"/>
+      <c r="Q234" s="28"/>
+      <c r="R234" s="5"/>
+    </row>
+    <row r="235" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B235" s="4"/>
+      <c r="C235" s="7"/>
+      <c r="D235" s="8"/>
+      <c r="E235" s="8"/>
+      <c r="F235" s="8"/>
+      <c r="G235" s="8"/>
+      <c r="H235" s="8"/>
+      <c r="I235" s="8"/>
+      <c r="J235" s="8"/>
+      <c r="K235" s="8"/>
+      <c r="L235" s="8"/>
+      <c r="M235" s="9"/>
+      <c r="N235" s="28"/>
+      <c r="O235" s="28"/>
+      <c r="P235" s="28"/>
+      <c r="Q235" s="28"/>
+      <c r="R235" s="5"/>
+    </row>
+    <row r="236" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B236" s="7"/>
+      <c r="C236" s="8"/>
+      <c r="D236" s="8"/>
+      <c r="E236" s="8"/>
+      <c r="F236" s="8"/>
+      <c r="G236" s="8"/>
+      <c r="H236" s="8"/>
+      <c r="I236" s="8"/>
+      <c r="J236" s="8"/>
+      <c r="K236" s="8"/>
+      <c r="L236" s="8"/>
+      <c r="M236" s="8"/>
+      <c r="N236" s="8"/>
+      <c r="O236" s="8"/>
+      <c r="P236" s="8"/>
+      <c r="Q236" s="8"/>
+      <c r="R236" s="9"/>
+    </row>
+    <row r="238" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B238" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="2"/>
+      <c r="M238" s="2"/>
+      <c r="N238" s="2"/>
+      <c r="O238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="Q238" s="2"/>
+      <c r="R238" s="2"/>
+      <c r="S238" s="2"/>
+      <c r="T238" s="2"/>
+      <c r="U238" s="3"/>
+    </row>
+    <row r="239" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B239" s="4"/>
+      <c r="C239" s="28"/>
+      <c r="D239" s="28"/>
+      <c r="E239" s="28"/>
+      <c r="F239" s="28"/>
+      <c r="G239" s="28"/>
+      <c r="H239" s="28"/>
+      <c r="I239" s="28"/>
+      <c r="J239" s="28"/>
+      <c r="K239" s="28"/>
+      <c r="L239" s="28"/>
+      <c r="M239" s="28"/>
+      <c r="N239" s="28"/>
+      <c r="O239" s="28"/>
+      <c r="P239" s="28"/>
+      <c r="Q239" s="28"/>
+      <c r="R239" s="28"/>
+      <c r="S239" s="28"/>
+      <c r="T239" s="28"/>
+      <c r="U239" s="5"/>
+    </row>
+    <row r="240" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B240" s="4"/>
+      <c r="C240" s="28"/>
+      <c r="D240" s="28"/>
+      <c r="E240" s="28"/>
+      <c r="F240" s="28"/>
+      <c r="G240" s="28"/>
+      <c r="H240" s="28"/>
+      <c r="I240" s="28"/>
+      <c r="J240" s="28"/>
+      <c r="K240" s="28"/>
+      <c r="L240" s="28"/>
+      <c r="M240" s="28"/>
+      <c r="N240" s="28"/>
+      <c r="O240" s="28"/>
+      <c r="P240" s="28"/>
+      <c r="Q240" s="28"/>
+      <c r="R240" s="28"/>
+      <c r="S240" s="28"/>
+      <c r="T240" s="28"/>
+      <c r="U240" s="5"/>
+    </row>
+    <row r="241" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B241" s="4"/>
+      <c r="C241" s="28"/>
+      <c r="D241" s="28"/>
+      <c r="E241" s="28"/>
+      <c r="F241" s="28"/>
+      <c r="G241" s="28"/>
+      <c r="H241" s="28"/>
+      <c r="I241" s="28"/>
+      <c r="J241" s="28"/>
+      <c r="K241" s="28"/>
+      <c r="L241" s="28"/>
+      <c r="M241" s="28"/>
+      <c r="N241" s="28"/>
+      <c r="O241" s="28"/>
+      <c r="P241" s="28"/>
+      <c r="Q241" s="28"/>
+      <c r="R241" s="28"/>
+      <c r="S241" s="28"/>
+      <c r="T241" s="28"/>
+      <c r="U241" s="5"/>
+    </row>
+    <row r="242" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B242" s="4"/>
+      <c r="C242" s="28"/>
+      <c r="D242" s="28"/>
+      <c r="E242" s="28"/>
+      <c r="F242" s="28"/>
+      <c r="G242" s="28"/>
+      <c r="H242" s="28"/>
+      <c r="I242" s="28"/>
+      <c r="J242" s="28"/>
+      <c r="K242" s="28"/>
+      <c r="L242" s="28"/>
+      <c r="M242" s="28"/>
+      <c r="N242" s="28"/>
+      <c r="O242" s="28"/>
+      <c r="P242" s="28"/>
+      <c r="Q242" s="28"/>
+      <c r="R242" s="28"/>
+      <c r="S242" s="28"/>
+      <c r="T242" s="28"/>
+      <c r="U242" s="5"/>
+    </row>
+    <row r="243" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B243" s="4"/>
+      <c r="C243" s="28"/>
+      <c r="D243" s="28"/>
+      <c r="E243" s="28"/>
+      <c r="F243" s="28"/>
+      <c r="G243" s="28"/>
+      <c r="H243" s="28"/>
+      <c r="I243" s="28"/>
+      <c r="J243" s="28"/>
+      <c r="K243" s="28"/>
+      <c r="L243" s="28"/>
+      <c r="M243" s="28"/>
+      <c r="N243" s="28"/>
+      <c r="O243" s="28"/>
+      <c r="P243" s="28"/>
+      <c r="Q243" s="28"/>
+      <c r="R243" s="28"/>
+      <c r="S243" s="28"/>
+      <c r="T243" s="28"/>
+      <c r="U243" s="5"/>
+    </row>
+    <row r="244" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B244" s="4"/>
+      <c r="C244" s="28"/>
+      <c r="D244" s="28"/>
+      <c r="E244" s="28"/>
+      <c r="F244" s="28"/>
+      <c r="G244" s="28"/>
+      <c r="H244" s="28"/>
+      <c r="I244" s="28"/>
+      <c r="J244" s="28"/>
+      <c r="K244" s="28"/>
+      <c r="L244" s="28"/>
+      <c r="M244" s="28"/>
+      <c r="N244" s="28"/>
+      <c r="O244" s="28"/>
+      <c r="P244" s="28"/>
+      <c r="Q244" s="28"/>
+      <c r="R244" s="28"/>
+      <c r="S244" s="28"/>
+      <c r="T244" s="28"/>
+      <c r="U244" s="5"/>
+    </row>
+    <row r="245" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B245" s="4"/>
+      <c r="C245" s="28"/>
+      <c r="D245" s="28"/>
+      <c r="E245" s="28"/>
+      <c r="F245" s="28"/>
+      <c r="G245" s="28"/>
+      <c r="H245" s="28"/>
+      <c r="I245" s="28"/>
+      <c r="J245" s="28"/>
+      <c r="K245" s="28"/>
+      <c r="L245" s="28"/>
+      <c r="M245" s="28"/>
+      <c r="N245" s="28"/>
+      <c r="O245" s="28"/>
+      <c r="P245" s="28"/>
+      <c r="Q245" s="28"/>
+      <c r="R245" s="28"/>
+      <c r="S245" s="28"/>
+      <c r="T245" s="28"/>
+      <c r="U245" s="5"/>
+    </row>
+    <row r="246" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B246" s="4"/>
+      <c r="C246" s="28"/>
+      <c r="D246" s="28"/>
+      <c r="E246" s="28"/>
+      <c r="F246" s="28"/>
+      <c r="G246" s="28"/>
+      <c r="H246" s="28"/>
+      <c r="I246" s="28"/>
+      <c r="J246" s="28"/>
+      <c r="K246" s="28"/>
+      <c r="L246" s="28"/>
+      <c r="M246" s="28"/>
+      <c r="N246" s="28"/>
+      <c r="O246" s="28"/>
+      <c r="P246" s="28"/>
+      <c r="Q246" s="28"/>
+      <c r="R246" s="28"/>
+      <c r="S246" s="28"/>
+      <c r="T246" s="28"/>
+      <c r="U246" s="5"/>
+    </row>
+    <row r="247" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B247" s="4"/>
+      <c r="C247" s="28"/>
+      <c r="D247" s="28"/>
+      <c r="E247" s="28"/>
+      <c r="F247" s="28"/>
+      <c r="G247" s="28"/>
+      <c r="H247" s="28"/>
+      <c r="I247" s="28"/>
+      <c r="J247" s="28"/>
+      <c r="K247" s="28"/>
+      <c r="L247" s="28"/>
+      <c r="M247" s="28"/>
+      <c r="N247" s="28"/>
+      <c r="O247" s="28"/>
+      <c r="P247" s="28"/>
+      <c r="Q247" s="28"/>
+      <c r="R247" s="28"/>
+      <c r="S247" s="28"/>
+      <c r="T247" s="28"/>
+      <c r="U247" s="5"/>
+    </row>
+    <row r="248" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B248" s="4"/>
+      <c r="C248" s="28"/>
+      <c r="D248" s="28"/>
+      <c r="E248" s="28"/>
+      <c r="F248" s="28"/>
+      <c r="G248" s="28"/>
+      <c r="H248" s="28"/>
+      <c r="I248" s="28"/>
+      <c r="J248" s="28"/>
+      <c r="K248" s="28"/>
+      <c r="L248" s="28"/>
+      <c r="M248" s="28"/>
+      <c r="N248" s="28"/>
+      <c r="O248" s="28"/>
+      <c r="P248" s="28"/>
+      <c r="Q248" s="28"/>
+      <c r="R248" s="28"/>
+      <c r="S248" s="28"/>
+      <c r="T248" s="28"/>
+      <c r="U248" s="5"/>
+    </row>
+    <row r="249" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B249" s="4"/>
+      <c r="C249" s="28"/>
+      <c r="D249" s="28"/>
+      <c r="E249" s="28"/>
+      <c r="F249" s="28"/>
+      <c r="G249" s="28"/>
+      <c r="H249" s="28"/>
+      <c r="I249" s="28"/>
+      <c r="J249" s="28"/>
+      <c r="K249" s="28"/>
+      <c r="L249" s="28"/>
+      <c r="M249" s="28"/>
+      <c r="N249" s="28"/>
+      <c r="O249" s="28"/>
+      <c r="P249" s="28"/>
+      <c r="Q249" s="28"/>
+      <c r="R249" s="28"/>
+      <c r="S249" s="28"/>
+      <c r="T249" s="28"/>
+      <c r="U249" s="5"/>
+    </row>
+    <row r="250" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B250" s="4"/>
+      <c r="C250" s="28"/>
+      <c r="D250" s="28"/>
+      <c r="E250" s="28"/>
+      <c r="F250" s="28"/>
+      <c r="G250" s="28"/>
+      <c r="H250" s="28"/>
+      <c r="I250" s="28"/>
+      <c r="J250" s="28"/>
+      <c r="K250" s="28"/>
+      <c r="L250" s="28"/>
+      <c r="M250" s="28"/>
+      <c r="N250" s="28"/>
+      <c r="O250" s="28"/>
+      <c r="P250" s="28"/>
+      <c r="Q250" s="28"/>
+      <c r="R250" s="28"/>
+      <c r="S250" s="28"/>
+      <c r="T250" s="28"/>
+      <c r="U250" s="5"/>
+    </row>
+    <row r="251" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B251" s="4"/>
+      <c r="C251" s="28"/>
+      <c r="D251" s="28"/>
+      <c r="E251" s="28"/>
+      <c r="F251" s="28"/>
+      <c r="G251" s="28"/>
+      <c r="H251" s="28"/>
+      <c r="I251" s="28"/>
+      <c r="J251" s="28"/>
+      <c r="K251" s="28"/>
+      <c r="L251" s="28"/>
+      <c r="M251" s="28"/>
+      <c r="N251" s="28"/>
+      <c r="O251" s="28"/>
+      <c r="P251" s="28"/>
+      <c r="Q251" s="28"/>
+      <c r="R251" s="28"/>
+      <c r="S251" s="28"/>
+      <c r="T251" s="28"/>
+      <c r="U251" s="5"/>
+    </row>
+    <row r="252" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B252" s="4"/>
+      <c r="C252" s="28"/>
+      <c r="D252" s="28"/>
+      <c r="E252" s="28"/>
+      <c r="F252" s="28"/>
+      <c r="G252" s="28"/>
+      <c r="H252" s="28"/>
+      <c r="I252" s="28"/>
+      <c r="J252" s="28"/>
+      <c r="K252" s="28"/>
+      <c r="L252" s="28"/>
+      <c r="M252" s="28"/>
+      <c r="N252" s="28"/>
+      <c r="O252" s="28"/>
+      <c r="P252" s="28"/>
+      <c r="Q252" s="28"/>
+      <c r="R252" s="28"/>
+      <c r="S252" s="28"/>
+      <c r="T252" s="28"/>
+      <c r="U252" s="5"/>
+    </row>
+    <row r="253" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B253" s="4"/>
+      <c r="C253" s="28"/>
+      <c r="D253" s="28"/>
+      <c r="E253" s="28"/>
+      <c r="F253" s="28"/>
+      <c r="G253" s="28"/>
+      <c r="H253" s="28"/>
+      <c r="I253" s="28"/>
+      <c r="J253" s="28"/>
+      <c r="K253" s="28"/>
+      <c r="L253" s="28"/>
+      <c r="M253" s="28"/>
+      <c r="N253" s="28"/>
+      <c r="O253" s="28"/>
+      <c r="P253" s="28"/>
+      <c r="Q253" s="28"/>
+      <c r="R253" s="28"/>
+      <c r="S253" s="28"/>
+      <c r="T253" s="28"/>
+      <c r="U253" s="5"/>
+    </row>
+    <row r="254" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B254" s="4"/>
+      <c r="C254" s="28"/>
+      <c r="D254" s="28"/>
+      <c r="E254" s="28"/>
+      <c r="F254" s="28"/>
+      <c r="G254" s="28"/>
+      <c r="H254" s="28"/>
+      <c r="I254" s="28"/>
+      <c r="J254" s="28"/>
+      <c r="K254" s="28"/>
+      <c r="L254" s="28"/>
+      <c r="M254" s="28"/>
+      <c r="N254" s="28"/>
+      <c r="O254" s="28"/>
+      <c r="P254" s="28"/>
+      <c r="Q254" s="28"/>
+      <c r="R254" s="28"/>
+      <c r="S254" s="28"/>
+      <c r="T254" s="28"/>
+      <c r="U254" s="5"/>
+    </row>
+    <row r="255" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B255" s="4"/>
+      <c r="C255" s="28"/>
+      <c r="D255" s="28"/>
+      <c r="E255" s="28"/>
+      <c r="F255" s="28"/>
+      <c r="G255" s="28"/>
+      <c r="H255" s="28"/>
+      <c r="I255" s="28"/>
+      <c r="J255" s="28"/>
+      <c r="K255" s="28"/>
+      <c r="L255" s="28"/>
+      <c r="M255" s="28"/>
+      <c r="N255" s="28"/>
+      <c r="O255" s="28"/>
+      <c r="P255" s="28"/>
+      <c r="Q255" s="28"/>
+      <c r="R255" s="28"/>
+      <c r="S255" s="28"/>
+      <c r="T255" s="28"/>
+      <c r="U255" s="5"/>
+    </row>
+    <row r="256" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B256" s="4"/>
+      <c r="C256" s="28"/>
+      <c r="D256" s="28"/>
+      <c r="E256" s="28"/>
+      <c r="F256" s="28"/>
+      <c r="G256" s="28"/>
+      <c r="H256" s="28"/>
+      <c r="I256" s="28"/>
+      <c r="J256" s="28"/>
+      <c r="K256" s="28"/>
+      <c r="L256" s="28"/>
+      <c r="M256" s="28"/>
+      <c r="N256" s="28"/>
+      <c r="O256" s="28"/>
+      <c r="P256" s="28"/>
+      <c r="Q256" s="28"/>
+      <c r="R256" s="28"/>
+      <c r="S256" s="28"/>
+      <c r="T256" s="28"/>
+      <c r="U256" s="5"/>
+    </row>
+    <row r="257" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B257" s="4"/>
+      <c r="C257" s="28"/>
+      <c r="D257" s="28"/>
+      <c r="E257" s="28"/>
+      <c r="F257" s="28"/>
+      <c r="G257" s="28"/>
+      <c r="H257" s="28"/>
+      <c r="I257" s="28"/>
+      <c r="J257" s="28"/>
+      <c r="K257" s="28"/>
+      <c r="L257" s="28"/>
+      <c r="M257" s="28"/>
+      <c r="N257" s="28"/>
+      <c r="O257" s="28"/>
+      <c r="P257" s="28"/>
+      <c r="Q257" s="28"/>
+      <c r="R257" s="28"/>
+      <c r="S257" s="28"/>
+      <c r="T257" s="28"/>
+      <c r="U257" s="5"/>
+    </row>
+    <row r="258" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B258" s="4"/>
+      <c r="C258" s="28"/>
+      <c r="D258" s="28"/>
+      <c r="E258" s="28"/>
+      <c r="F258" s="28"/>
+      <c r="G258" s="28"/>
+      <c r="H258" s="28"/>
+      <c r="I258" s="28"/>
+      <c r="J258" s="28"/>
+      <c r="K258" s="28"/>
+      <c r="L258" s="28"/>
+      <c r="M258" s="28"/>
+      <c r="N258" s="28"/>
+      <c r="O258" s="28"/>
+      <c r="P258" s="28"/>
+      <c r="Q258" s="28"/>
+      <c r="R258" s="28"/>
+      <c r="S258" s="28"/>
+      <c r="T258" s="28"/>
+      <c r="U258" s="5"/>
+    </row>
+    <row r="259" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B259" s="4"/>
+      <c r="C259" s="28"/>
+      <c r="D259" s="28"/>
+      <c r="E259" s="28"/>
+      <c r="F259" s="28"/>
+      <c r="G259" s="28"/>
+      <c r="H259" s="28"/>
+      <c r="I259" s="28"/>
+      <c r="J259" s="28"/>
+      <c r="K259" s="28"/>
+      <c r="L259" s="28"/>
+      <c r="M259" s="28"/>
+      <c r="N259" s="28"/>
+      <c r="O259" s="28"/>
+      <c r="P259" s="28"/>
+      <c r="Q259" s="28"/>
+      <c r="R259" s="28"/>
+      <c r="S259" s="28"/>
+      <c r="T259" s="28"/>
+      <c r="U259" s="5"/>
+    </row>
+    <row r="260" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B260" s="4"/>
+      <c r="C260" s="28"/>
+      <c r="D260" s="28"/>
+      <c r="E260" s="28"/>
+      <c r="F260" s="28"/>
+      <c r="G260" s="28"/>
+      <c r="H260" s="28"/>
+      <c r="I260" s="28"/>
+      <c r="J260" s="28"/>
+      <c r="K260" s="28"/>
+      <c r="L260" s="28"/>
+      <c r="M260" s="28"/>
+      <c r="N260" s="28"/>
+      <c r="O260" s="28"/>
+      <c r="P260" s="28"/>
+      <c r="Q260" s="28"/>
+      <c r="R260" s="28"/>
+      <c r="S260" s="28"/>
+      <c r="T260" s="28"/>
+      <c r="U260" s="5"/>
+    </row>
+    <row r="261" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B261" s="4"/>
+      <c r="C261" s="28"/>
+      <c r="D261" s="28"/>
+      <c r="E261" s="28"/>
+      <c r="F261" s="28"/>
+      <c r="G261" s="28"/>
+      <c r="H261" s="28"/>
+      <c r="I261" s="28"/>
+      <c r="J261" s="28"/>
+      <c r="K261" s="28"/>
+      <c r="L261" s="28"/>
+      <c r="M261" s="28"/>
+      <c r="N261" s="28"/>
+      <c r="O261" s="28"/>
+      <c r="P261" s="28"/>
+      <c r="Q261" s="28"/>
+      <c r="R261" s="28"/>
+      <c r="S261" s="28"/>
+      <c r="T261" s="28"/>
+      <c r="U261" s="5"/>
+    </row>
+    <row r="262" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B262" s="4"/>
+      <c r="C262" s="28"/>
+      <c r="D262" s="28"/>
+      <c r="E262" s="28"/>
+      <c r="F262" s="28"/>
+      <c r="G262" s="28"/>
+      <c r="H262" s="28"/>
+      <c r="I262" s="28"/>
+      <c r="J262" s="28"/>
+      <c r="K262" s="28"/>
+      <c r="L262" s="28"/>
+      <c r="M262" s="28"/>
+      <c r="N262" s="28"/>
+      <c r="O262" s="28"/>
+      <c r="P262" s="28"/>
+      <c r="Q262" s="28"/>
+      <c r="R262" s="28"/>
+      <c r="S262" s="28"/>
+      <c r="T262" s="28"/>
+      <c r="U262" s="5"/>
+    </row>
+    <row r="263" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B263" s="4"/>
+      <c r="C263" s="28"/>
+      <c r="D263" s="28"/>
+      <c r="E263" s="28"/>
+      <c r="F263" s="28"/>
+      <c r="G263" s="28"/>
+      <c r="H263" s="28"/>
+      <c r="I263" s="28"/>
+      <c r="J263" s="28"/>
+      <c r="K263" s="28"/>
+      <c r="L263" s="28"/>
+      <c r="M263" s="28"/>
+      <c r="N263" s="28"/>
+      <c r="O263" s="28"/>
+      <c r="P263" s="28"/>
+      <c r="Q263" s="28"/>
+      <c r="R263" s="28"/>
+      <c r="S263" s="28"/>
+      <c r="T263" s="28"/>
+      <c r="U263" s="5"/>
+    </row>
+    <row r="264" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B264" s="4"/>
+      <c r="C264" s="28"/>
+      <c r="D264" s="28"/>
+      <c r="E264" s="28"/>
+      <c r="F264" s="28"/>
+      <c r="G264" s="28"/>
+      <c r="H264" s="28"/>
+      <c r="I264" s="28"/>
+      <c r="J264" s="28"/>
+      <c r="K264" s="28"/>
+      <c r="L264" s="28"/>
+      <c r="M264" s="28"/>
+      <c r="N264" s="28"/>
+      <c r="O264" s="28"/>
+      <c r="P264" s="28"/>
+      <c r="Q264" s="28"/>
+      <c r="R264" s="28"/>
+      <c r="S264" s="28"/>
+      <c r="T264" s="28"/>
+      <c r="U264" s="5"/>
+    </row>
+    <row r="265" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B265" s="4"/>
+      <c r="C265" s="28"/>
+      <c r="D265" s="28"/>
+      <c r="E265" s="28"/>
+      <c r="F265" s="28"/>
+      <c r="G265" s="28"/>
+      <c r="H265" s="28"/>
+      <c r="I265" s="28"/>
+      <c r="J265" s="28"/>
+      <c r="K265" s="28"/>
+      <c r="L265" s="28"/>
+      <c r="M265" s="28"/>
+      <c r="N265" s="28"/>
+      <c r="O265" s="28"/>
+      <c r="P265" s="28"/>
+      <c r="Q265" s="28"/>
+      <c r="R265" s="28"/>
+      <c r="S265" s="28"/>
+      <c r="T265" s="28"/>
+      <c r="U265" s="5"/>
+    </row>
+    <row r="266" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B266" s="4"/>
+      <c r="C266" s="28"/>
+      <c r="D266" s="28"/>
+      <c r="E266" s="28"/>
+      <c r="F266" s="28"/>
+      <c r="G266" s="28"/>
+      <c r="H266" s="28"/>
+      <c r="I266" s="28"/>
+      <c r="J266" s="28"/>
+      <c r="K266" s="28"/>
+      <c r="L266" s="28"/>
+      <c r="M266" s="28"/>
+      <c r="N266" s="28"/>
+      <c r="O266" s="28"/>
+      <c r="P266" s="28"/>
+      <c r="Q266" s="28"/>
+      <c r="R266" s="28"/>
+      <c r="S266" s="28"/>
+      <c r="T266" s="28"/>
+      <c r="U266" s="5"/>
+    </row>
+    <row r="267" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B267" s="4"/>
+      <c r="C267" s="28"/>
+      <c r="D267" s="28"/>
+      <c r="E267" s="28"/>
+      <c r="F267" s="28"/>
+      <c r="G267" s="28"/>
+      <c r="H267" s="28"/>
+      <c r="I267" s="28"/>
+      <c r="J267" s="28"/>
+      <c r="K267" s="28"/>
+      <c r="L267" s="28"/>
+      <c r="M267" s="28"/>
+      <c r="N267" s="28"/>
+      <c r="O267" s="28"/>
+      <c r="P267" s="28"/>
+      <c r="Q267" s="28"/>
+      <c r="R267" s="28"/>
+      <c r="S267" s="28"/>
+      <c r="T267" s="28"/>
+      <c r="U267" s="5"/>
+    </row>
+    <row r="268" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B268" s="4"/>
+      <c r="C268" s="28"/>
+      <c r="D268" s="28"/>
+      <c r="E268" s="28"/>
+      <c r="F268" s="28"/>
+      <c r="G268" s="28"/>
+      <c r="H268" s="28"/>
+      <c r="I268" s="28"/>
+      <c r="J268" s="28"/>
+      <c r="K268" s="28"/>
+      <c r="L268" s="28"/>
+      <c r="M268" s="28"/>
+      <c r="N268" s="28"/>
+      <c r="O268" s="28"/>
+      <c r="P268" s="28"/>
+      <c r="Q268" s="28"/>
+      <c r="R268" s="28"/>
+      <c r="S268" s="28"/>
+      <c r="T268" s="28"/>
+      <c r="U268" s="5"/>
+    </row>
+    <row r="269" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B269" s="4"/>
+      <c r="C269" s="28"/>
+      <c r="D269" s="28"/>
+      <c r="E269" s="28"/>
+      <c r="F269" s="28"/>
+      <c r="G269" s="28"/>
+      <c r="H269" s="28"/>
+      <c r="I269" s="28"/>
+      <c r="J269" s="28"/>
+      <c r="K269" s="28"/>
+      <c r="L269" s="28"/>
+      <c r="M269" s="28"/>
+      <c r="N269" s="28"/>
+      <c r="O269" s="28"/>
+      <c r="P269" s="28"/>
+      <c r="Q269" s="28"/>
+      <c r="R269" s="28"/>
+      <c r="S269" s="28"/>
+      <c r="T269" s="28"/>
+      <c r="U269" s="5"/>
+    </row>
+    <row r="270" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B270" s="4"/>
+      <c r="C270" s="28"/>
+      <c r="D270" s="28"/>
+      <c r="E270" s="28"/>
+      <c r="F270" s="28"/>
+      <c r="G270" s="28"/>
+      <c r="H270" s="28"/>
+      <c r="I270" s="28"/>
+      <c r="J270" s="28"/>
+      <c r="K270" s="28"/>
+      <c r="L270" s="28"/>
+      <c r="M270" s="28"/>
+      <c r="N270" s="28"/>
+      <c r="O270" s="28"/>
+      <c r="P270" s="28"/>
+      <c r="Q270" s="28"/>
+      <c r="R270" s="28"/>
+      <c r="S270" s="28"/>
+      <c r="T270" s="28"/>
+      <c r="U270" s="5"/>
+    </row>
+    <row r="271" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B271" s="4"/>
+      <c r="C271" s="28"/>
+      <c r="D271" s="28"/>
+      <c r="E271" s="28"/>
+      <c r="F271" s="28"/>
+      <c r="G271" s="28"/>
+      <c r="H271" s="28"/>
+      <c r="I271" s="28"/>
+      <c r="J271" s="28"/>
+      <c r="K271" s="28"/>
+      <c r="L271" s="28"/>
+      <c r="M271" s="28"/>
+      <c r="N271" s="28"/>
+      <c r="O271" s="28"/>
+      <c r="P271" s="28"/>
+      <c r="Q271" s="28"/>
+      <c r="R271" s="28"/>
+      <c r="S271" s="28"/>
+      <c r="T271" s="28"/>
+      <c r="U271" s="5"/>
+    </row>
+    <row r="272" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B272" s="4"/>
+      <c r="C272" s="28"/>
+      <c r="D272" s="28"/>
+      <c r="E272" s="28"/>
+      <c r="F272" s="28"/>
+      <c r="G272" s="28"/>
+      <c r="H272" s="28"/>
+      <c r="I272" s="28"/>
+      <c r="J272" s="28"/>
+      <c r="K272" s="28"/>
+      <c r="L272" s="28"/>
+      <c r="M272" s="28"/>
+      <c r="N272" s="28"/>
+      <c r="O272" s="28"/>
+      <c r="P272" s="28"/>
+      <c r="Q272" s="28"/>
+      <c r="R272" s="28"/>
+      <c r="S272" s="28"/>
+      <c r="T272" s="28"/>
+      <c r="U272" s="5"/>
+    </row>
+    <row r="273" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B273" s="4"/>
+      <c r="C273" s="28"/>
+      <c r="D273" s="28"/>
+      <c r="E273" s="28"/>
+      <c r="F273" s="28"/>
+      <c r="G273" s="28"/>
+      <c r="H273" s="28"/>
+      <c r="I273" s="28"/>
+      <c r="J273" s="28"/>
+      <c r="K273" s="28"/>
+      <c r="L273" s="28"/>
+      <c r="M273" s="28"/>
+      <c r="N273" s="28"/>
+      <c r="O273" s="28"/>
+      <c r="P273" s="28"/>
+      <c r="Q273" s="28"/>
+      <c r="R273" s="28"/>
+      <c r="S273" s="28"/>
+      <c r="T273" s="28"/>
+      <c r="U273" s="5"/>
+    </row>
+    <row r="274" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B274" s="4"/>
+      <c r="C274" s="28"/>
+      <c r="D274" s="28"/>
+      <c r="E274" s="28"/>
+      <c r="F274" s="28"/>
+      <c r="G274" s="28"/>
+      <c r="H274" s="28"/>
+      <c r="I274" s="28"/>
+      <c r="J274" s="28"/>
+      <c r="K274" s="28"/>
+      <c r="L274" s="28"/>
+      <c r="M274" s="28"/>
+      <c r="N274" s="28"/>
+      <c r="O274" s="28"/>
+      <c r="P274" s="28"/>
+      <c r="Q274" s="28"/>
+      <c r="R274" s="28"/>
+      <c r="S274" s="28"/>
+      <c r="T274" s="28"/>
+      <c r="U274" s="5"/>
+    </row>
+    <row r="275" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B275" s="4"/>
+      <c r="C275" s="28"/>
+      <c r="D275" s="28"/>
+      <c r="E275" s="28"/>
+      <c r="F275" s="28"/>
+      <c r="G275" s="28"/>
+      <c r="H275" s="28"/>
+      <c r="I275" s="28"/>
+      <c r="J275" s="28"/>
+      <c r="K275" s="28"/>
+      <c r="L275" s="28"/>
+      <c r="M275" s="28"/>
+      <c r="N275" s="28"/>
+      <c r="O275" s="28"/>
+      <c r="P275" s="28"/>
+      <c r="Q275" s="28"/>
+      <c r="R275" s="28"/>
+      <c r="S275" s="28"/>
+      <c r="T275" s="28"/>
+      <c r="U275" s="5"/>
+    </row>
+    <row r="276" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B276" s="4"/>
+      <c r="C276" s="28"/>
+      <c r="D276" s="28"/>
+      <c r="E276" s="28"/>
+      <c r="F276" s="28"/>
+      <c r="G276" s="28"/>
+      <c r="H276" s="28"/>
+      <c r="I276" s="28"/>
+      <c r="J276" s="28"/>
+      <c r="K276" s="28"/>
+      <c r="L276" s="28"/>
+      <c r="M276" s="28"/>
+      <c r="N276" s="28"/>
+      <c r="O276" s="28"/>
+      <c r="P276" s="28"/>
+      <c r="Q276" s="28"/>
+      <c r="R276" s="28"/>
+      <c r="S276" s="28"/>
+      <c r="T276" s="28"/>
+      <c r="U276" s="5"/>
+    </row>
+    <row r="277" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B277" s="4"/>
+      <c r="C277" s="28"/>
+      <c r="D277" s="28"/>
+      <c r="E277" s="28"/>
+      <c r="F277" s="28"/>
+      <c r="G277" s="28"/>
+      <c r="H277" s="28"/>
+      <c r="I277" s="28"/>
+      <c r="J277" s="28"/>
+      <c r="K277" s="28"/>
+      <c r="L277" s="28"/>
+      <c r="M277" s="28"/>
+      <c r="N277" s="28"/>
+      <c r="O277" s="28"/>
+      <c r="P277" s="28"/>
+      <c r="Q277" s="28"/>
+      <c r="R277" s="28"/>
+      <c r="S277" s="28"/>
+      <c r="T277" s="28"/>
+      <c r="U277" s="5"/>
+    </row>
+    <row r="278" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B278" s="4"/>
+      <c r="C278" s="28"/>
+      <c r="D278" s="28"/>
+      <c r="E278" s="28"/>
+      <c r="F278" s="28"/>
+      <c r="G278" s="28"/>
+      <c r="H278" s="28"/>
+      <c r="I278" s="28"/>
+      <c r="J278" s="28"/>
+      <c r="K278" s="28"/>
+      <c r="L278" s="28"/>
+      <c r="M278" s="28"/>
+      <c r="N278" s="28"/>
+      <c r="O278" s="28"/>
+      <c r="P278" s="28"/>
+      <c r="Q278" s="28"/>
+      <c r="R278" s="28"/>
+      <c r="S278" s="28"/>
+      <c r="T278" s="28"/>
+      <c r="U278" s="5"/>
+    </row>
+    <row r="279" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B279" s="4"/>
+      <c r="C279" s="28"/>
+      <c r="D279" s="28"/>
+      <c r="E279" s="28"/>
+      <c r="F279" s="28"/>
+      <c r="G279" s="28"/>
+      <c r="H279" s="28"/>
+      <c r="I279" s="28"/>
+      <c r="J279" s="28"/>
+      <c r="K279" s="28"/>
+      <c r="L279" s="28"/>
+      <c r="M279" s="28"/>
+      <c r="N279" s="28"/>
+      <c r="O279" s="28"/>
+      <c r="P279" s="28"/>
+      <c r="Q279" s="28"/>
+      <c r="R279" s="28"/>
+      <c r="S279" s="28"/>
+      <c r="T279" s="28"/>
+      <c r="U279" s="5"/>
+    </row>
+    <row r="280" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B280" s="4"/>
+      <c r="C280" s="28"/>
+      <c r="D280" s="28"/>
+      <c r="E280" s="28"/>
+      <c r="F280" s="28"/>
+      <c r="G280" s="28"/>
+      <c r="H280" s="28"/>
+      <c r="I280" s="28"/>
+      <c r="J280" s="28"/>
+      <c r="K280" s="28"/>
+      <c r="L280" s="28"/>
+      <c r="M280" s="28"/>
+      <c r="N280" s="28"/>
+      <c r="O280" s="28"/>
+      <c r="P280" s="28"/>
+      <c r="Q280" s="28"/>
+      <c r="R280" s="28"/>
+      <c r="S280" s="28"/>
+      <c r="T280" s="28"/>
+      <c r="U280" s="5"/>
+    </row>
+    <row r="281" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B281" s="4"/>
+      <c r="C281" s="28"/>
+      <c r="D281" s="28"/>
+      <c r="E281" s="28"/>
+      <c r="F281" s="28"/>
+      <c r="G281" s="28"/>
+      <c r="H281" s="28"/>
+      <c r="I281" s="28"/>
+      <c r="J281" s="28"/>
+      <c r="K281" s="28"/>
+      <c r="L281" s="28"/>
+      <c r="M281" s="28"/>
+      <c r="N281" s="28"/>
+      <c r="O281" s="28"/>
+      <c r="P281" s="28"/>
+      <c r="Q281" s="28"/>
+      <c r="R281" s="28"/>
+      <c r="S281" s="28"/>
+      <c r="T281" s="28"/>
+      <c r="U281" s="5"/>
+    </row>
+    <row r="282" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B282" s="4"/>
+      <c r="C282" s="28"/>
+      <c r="D282" s="28"/>
+      <c r="E282" s="28"/>
+      <c r="F282" s="28"/>
+      <c r="G282" s="28"/>
+      <c r="H282" s="28"/>
+      <c r="I282" s="28"/>
+      <c r="J282" s="28"/>
+      <c r="K282" s="28"/>
+      <c r="L282" s="28"/>
+      <c r="M282" s="28"/>
+      <c r="N282" s="28"/>
+      <c r="O282" s="28"/>
+      <c r="P282" s="28"/>
+      <c r="Q282" s="28"/>
+      <c r="R282" s="28"/>
+      <c r="S282" s="28"/>
+      <c r="T282" s="28"/>
+      <c r="U282" s="5"/>
+    </row>
+    <row r="283" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B283" s="4"/>
+      <c r="C283" s="28"/>
+      <c r="D283" s="28"/>
+      <c r="E283" s="28"/>
+      <c r="F283" s="28"/>
+      <c r="G283" s="28"/>
+      <c r="H283" s="28"/>
+      <c r="I283" s="28"/>
+      <c r="J283" s="28"/>
+      <c r="K283" s="28"/>
+      <c r="L283" s="28"/>
+      <c r="M283" s="28"/>
+      <c r="N283" s="28"/>
+      <c r="O283" s="28"/>
+      <c r="P283" s="28"/>
+      <c r="Q283" s="28"/>
+      <c r="R283" s="28"/>
+      <c r="S283" s="28"/>
+      <c r="T283" s="28"/>
+      <c r="U283" s="5"/>
+    </row>
+    <row r="284" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B284" s="4"/>
+      <c r="C284" s="28"/>
+      <c r="D284" s="28"/>
+      <c r="E284" s="28"/>
+      <c r="F284" s="28"/>
+      <c r="G284" s="28"/>
+      <c r="H284" s="28"/>
+      <c r="I284" s="28"/>
+      <c r="J284" s="28"/>
+      <c r="K284" s="28"/>
+      <c r="L284" s="28"/>
+      <c r="M284" s="28"/>
+      <c r="N284" s="28"/>
+      <c r="O284" s="28"/>
+      <c r="P284" s="28"/>
+      <c r="Q284" s="28"/>
+      <c r="R284" s="28"/>
+      <c r="S284" s="28"/>
+      <c r="T284" s="28"/>
+      <c r="U284" s="5"/>
+    </row>
+    <row r="285" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B285" s="4"/>
+      <c r="C285" s="28"/>
+      <c r="D285" s="28"/>
+      <c r="E285" s="28"/>
+      <c r="F285" s="28"/>
+      <c r="G285" s="28"/>
+      <c r="H285" s="28"/>
+      <c r="I285" s="28"/>
+      <c r="J285" s="28"/>
+      <c r="K285" s="28"/>
+      <c r="L285" s="28"/>
+      <c r="M285" s="28"/>
+      <c r="N285" s="28"/>
+      <c r="O285" s="28"/>
+      <c r="P285" s="28"/>
+      <c r="Q285" s="28"/>
+      <c r="R285" s="28"/>
+      <c r="S285" s="28"/>
+      <c r="T285" s="28"/>
+      <c r="U285" s="5"/>
+    </row>
+    <row r="286" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B286" s="4"/>
+      <c r="C286" s="28"/>
+      <c r="D286" s="28"/>
+      <c r="E286" s="28"/>
+      <c r="F286" s="28"/>
+      <c r="G286" s="28"/>
+      <c r="H286" s="28"/>
+      <c r="I286" s="28"/>
+      <c r="J286" s="28"/>
+      <c r="K286" s="28"/>
+      <c r="L286" s="28"/>
+      <c r="M286" s="28"/>
+      <c r="N286" s="28"/>
+      <c r="O286" s="28"/>
+      <c r="P286" s="28"/>
+      <c r="Q286" s="28"/>
+      <c r="R286" s="28"/>
+      <c r="S286" s="28"/>
+      <c r="T286" s="28"/>
+      <c r="U286" s="5"/>
+    </row>
+    <row r="287" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B287" s="4"/>
+      <c r="C287" s="28"/>
+      <c r="D287" s="28"/>
+      <c r="E287" s="28"/>
+      <c r="F287" s="28"/>
+      <c r="G287" s="28"/>
+      <c r="H287" s="28"/>
+      <c r="I287" s="28"/>
+      <c r="J287" s="28"/>
+      <c r="K287" s="28"/>
+      <c r="L287" s="28"/>
+      <c r="M287" s="28"/>
+      <c r="N287" s="28"/>
+      <c r="O287" s="28"/>
+      <c r="P287" s="28"/>
+      <c r="Q287" s="28"/>
+      <c r="R287" s="28"/>
+      <c r="S287" s="28"/>
+      <c r="T287" s="28"/>
+      <c r="U287" s="5"/>
+    </row>
+    <row r="288" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B288" s="4"/>
+      <c r="C288" s="28"/>
+      <c r="D288" s="28"/>
+      <c r="E288" s="28"/>
+      <c r="F288" s="28"/>
+      <c r="G288" s="28"/>
+      <c r="H288" s="28"/>
+      <c r="I288" s="28"/>
+      <c r="J288" s="28"/>
+      <c r="K288" s="28"/>
+      <c r="L288" s="28"/>
+      <c r="M288" s="28"/>
+      <c r="N288" s="28"/>
+      <c r="O288" s="28"/>
+      <c r="P288" s="28"/>
+      <c r="Q288" s="28"/>
+      <c r="R288" s="28"/>
+      <c r="S288" s="28"/>
+      <c r="T288" s="28"/>
+      <c r="U288" s="5"/>
+    </row>
+    <row r="289" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B289" s="4"/>
+      <c r="C289" s="28"/>
+      <c r="D289" s="28"/>
+      <c r="E289" s="28"/>
+      <c r="F289" s="28"/>
+      <c r="G289" s="28"/>
+      <c r="H289" s="28"/>
+      <c r="I289" s="28"/>
+      <c r="J289" s="28"/>
+      <c r="K289" s="28"/>
+      <c r="L289" s="28"/>
+      <c r="M289" s="28"/>
+      <c r="N289" s="28"/>
+      <c r="O289" s="28"/>
+      <c r="P289" s="28"/>
+      <c r="Q289" s="28"/>
+      <c r="R289" s="28"/>
+      <c r="S289" s="28"/>
+      <c r="T289" s="28"/>
+      <c r="U289" s="5"/>
+    </row>
+    <row r="290" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B290" s="4"/>
+      <c r="C290" s="28"/>
+      <c r="D290" s="28"/>
+      <c r="E290" s="28"/>
+      <c r="F290" s="28"/>
+      <c r="G290" s="28"/>
+      <c r="H290" s="28"/>
+      <c r="I290" s="28"/>
+      <c r="J290" s="28"/>
+      <c r="K290" s="28"/>
+      <c r="L290" s="28"/>
+      <c r="M290" s="28"/>
+      <c r="N290" s="28"/>
+      <c r="O290" s="28"/>
+      <c r="P290" s="28"/>
+      <c r="Q290" s="28"/>
+      <c r="R290" s="28"/>
+      <c r="S290" s="28"/>
+      <c r="T290" s="28"/>
+      <c r="U290" s="5"/>
+    </row>
+    <row r="291" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B291" s="4"/>
+      <c r="C291" s="28"/>
+      <c r="D291" s="28"/>
+      <c r="E291" s="28"/>
+      <c r="F291" s="28"/>
+      <c r="G291" s="28"/>
+      <c r="H291" s="28"/>
+      <c r="I291" s="28"/>
+      <c r="J291" s="28"/>
+      <c r="K291" s="28"/>
+      <c r="L291" s="28"/>
+      <c r="M291" s="28"/>
+      <c r="N291" s="28"/>
+      <c r="O291" s="28"/>
+      <c r="P291" s="28"/>
+      <c r="Q291" s="28"/>
+      <c r="R291" s="28"/>
+      <c r="S291" s="28"/>
+      <c r="T291" s="28"/>
+      <c r="U291" s="5"/>
+    </row>
+    <row r="292" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B292" s="4"/>
+      <c r="C292" s="28"/>
+      <c r="D292" s="28"/>
+      <c r="E292" s="28"/>
+      <c r="F292" s="28"/>
+      <c r="G292" s="28"/>
+      <c r="H292" s="28"/>
+      <c r="I292" s="28"/>
+      <c r="J292" s="28"/>
+      <c r="K292" s="28"/>
+      <c r="L292" s="28"/>
+      <c r="M292" s="28"/>
+      <c r="N292" s="28"/>
+      <c r="O292" s="28"/>
+      <c r="P292" s="28"/>
+      <c r="Q292" s="28"/>
+      <c r="R292" s="28"/>
+      <c r="S292" s="28"/>
+      <c r="T292" s="28"/>
+      <c r="U292" s="5"/>
+    </row>
+    <row r="293" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B293" s="4"/>
+      <c r="C293" s="28"/>
+      <c r="D293" s="28"/>
+      <c r="E293" s="28"/>
+      <c r="F293" s="28"/>
+      <c r="G293" s="28"/>
+      <c r="H293" s="28"/>
+      <c r="I293" s="28"/>
+      <c r="J293" s="28"/>
+      <c r="K293" s="28"/>
+      <c r="L293" s="28"/>
+      <c r="M293" s="28"/>
+      <c r="N293" s="28"/>
+      <c r="O293" s="28"/>
+      <c r="P293" s="28"/>
+      <c r="Q293" s="28"/>
+      <c r="R293" s="28"/>
+      <c r="S293" s="28"/>
+      <c r="T293" s="28"/>
+      <c r="U293" s="5"/>
+    </row>
+    <row r="294" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B294" s="4"/>
+      <c r="C294" s="28"/>
+      <c r="D294" s="28"/>
+      <c r="E294" s="28"/>
+      <c r="F294" s="28"/>
+      <c r="G294" s="28"/>
+      <c r="H294" s="28"/>
+      <c r="I294" s="28"/>
+      <c r="J294" s="28"/>
+      <c r="K294" s="28"/>
+      <c r="L294" s="28"/>
+      <c r="M294" s="28"/>
+      <c r="N294" s="28"/>
+      <c r="O294" s="28"/>
+      <c r="P294" s="28"/>
+      <c r="Q294" s="28"/>
+      <c r="R294" s="28"/>
+      <c r="S294" s="28"/>
+      <c r="T294" s="28"/>
+      <c r="U294" s="5"/>
+    </row>
+    <row r="295" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B295" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C295" s="28"/>
+      <c r="D295" s="28"/>
+      <c r="E295" s="28"/>
+      <c r="F295" s="28"/>
+      <c r="G295" s="28"/>
+      <c r="H295" s="28"/>
+      <c r="I295" s="28"/>
+      <c r="J295" s="28"/>
+      <c r="K295" s="28"/>
+      <c r="L295" s="28"/>
+      <c r="M295" s="28"/>
+      <c r="N295" s="28"/>
+      <c r="O295" s="28"/>
+      <c r="P295" s="28"/>
+      <c r="Q295" s="28"/>
+      <c r="R295" s="28"/>
+      <c r="S295" s="28"/>
+      <c r="T295" s="28"/>
+      <c r="U295" s="5"/>
+    </row>
+    <row r="296" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B296" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C296" s="28"/>
+      <c r="D296" s="28"/>
+      <c r="E296" s="28"/>
+      <c r="F296" s="28"/>
+      <c r="G296" s="28"/>
+      <c r="H296" s="28"/>
+      <c r="I296" s="28"/>
+      <c r="J296" s="28"/>
+      <c r="K296" s="28"/>
+      <c r="L296" s="28"/>
+      <c r="M296" s="28"/>
+      <c r="N296" s="28"/>
+      <c r="O296" s="28"/>
+      <c r="P296" s="28"/>
+      <c r="Q296" s="28"/>
+      <c r="R296" s="28"/>
+      <c r="S296" s="28"/>
+      <c r="T296" s="28"/>
+      <c r="U296" s="5"/>
+    </row>
+    <row r="297" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B297" s="4"/>
+      <c r="C297" s="28"/>
+      <c r="D297" s="28"/>
+      <c r="E297" s="28"/>
+      <c r="F297" s="28"/>
+      <c r="G297" s="28"/>
+      <c r="H297" s="28"/>
+      <c r="I297" s="28"/>
+      <c r="J297" s="28"/>
+      <c r="K297" s="28"/>
+      <c r="L297" s="28"/>
+      <c r="M297" s="28"/>
+      <c r="N297" s="28"/>
+      <c r="O297" s="28"/>
+      <c r="P297" s="28"/>
+      <c r="Q297" s="28"/>
+      <c r="R297" s="28"/>
+      <c r="S297" s="28"/>
+      <c r="T297" s="28"/>
+      <c r="U297" s="5"/>
+    </row>
+    <row r="298" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B298" s="4"/>
+      <c r="C298" s="28"/>
+      <c r="D298" s="28"/>
+      <c r="E298" s="28"/>
+      <c r="F298" s="28"/>
+      <c r="G298" s="28"/>
+      <c r="H298" s="28"/>
+      <c r="I298" s="28"/>
+      <c r="J298" s="28"/>
+      <c r="K298" s="28"/>
+      <c r="L298" s="28"/>
+      <c r="M298" s="28"/>
+      <c r="N298" s="28"/>
+      <c r="O298" s="28"/>
+      <c r="P298" s="28"/>
+      <c r="Q298" s="28"/>
+      <c r="R298" s="28"/>
+      <c r="S298" s="28"/>
+      <c r="T298" s="28"/>
+      <c r="U298" s="5"/>
+    </row>
+    <row r="299" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B299" s="4"/>
+      <c r="C299" s="28"/>
+      <c r="D299" s="28"/>
+      <c r="E299" s="28"/>
+      <c r="F299" s="28"/>
+      <c r="G299" s="28"/>
+      <c r="H299" s="28"/>
+      <c r="I299" s="28"/>
+      <c r="J299" s="28"/>
+      <c r="K299" s="28"/>
+      <c r="L299" s="28"/>
+      <c r="M299" s="28"/>
+      <c r="N299" s="28"/>
+      <c r="O299" s="28"/>
+      <c r="P299" s="28"/>
+      <c r="Q299" s="28"/>
+      <c r="R299" s="28"/>
+      <c r="S299" s="28"/>
+      <c r="T299" s="28"/>
+      <c r="U299" s="5"/>
+    </row>
+    <row r="300" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B300" s="4"/>
+      <c r="C300" s="28"/>
+      <c r="D300" s="28"/>
+      <c r="E300" s="28"/>
+      <c r="F300" s="28"/>
+      <c r="G300" s="28"/>
+      <c r="H300" s="28"/>
+      <c r="I300" s="28"/>
+      <c r="J300" s="28"/>
+      <c r="K300" s="28"/>
+      <c r="L300" s="28"/>
+      <c r="M300" s="28"/>
+      <c r="N300" s="28"/>
+      <c r="O300" s="28"/>
+      <c r="P300" s="28"/>
+      <c r="Q300" s="28"/>
+      <c r="R300" s="28"/>
+      <c r="S300" s="28"/>
+      <c r="T300" s="28"/>
+      <c r="U300" s="5"/>
+    </row>
+    <row r="301" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B301" s="4"/>
+      <c r="C301" s="28"/>
+      <c r="D301" s="28"/>
+      <c r="E301" s="28"/>
+      <c r="F301" s="28"/>
+      <c r="G301" s="28"/>
+      <c r="H301" s="28"/>
+      <c r="I301" s="28"/>
+      <c r="J301" s="28"/>
+      <c r="K301" s="28"/>
+      <c r="L301" s="28"/>
+      <c r="M301" s="28"/>
+      <c r="N301" s="28"/>
+      <c r="O301" s="28"/>
+      <c r="P301" s="28"/>
+      <c r="Q301" s="28"/>
+      <c r="R301" s="28"/>
+      <c r="S301" s="28"/>
+      <c r="T301" s="28"/>
+      <c r="U301" s="5"/>
+    </row>
+    <row r="302" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B302" s="4"/>
+      <c r="C302" s="28"/>
+      <c r="D302" s="28"/>
+      <c r="E302" s="28"/>
+      <c r="F302" s="28"/>
+      <c r="G302" s="28"/>
+      <c r="H302" s="28"/>
+      <c r="I302" s="28"/>
+      <c r="J302" s="28"/>
+      <c r="K302" s="28"/>
+      <c r="L302" s="28"/>
+      <c r="M302" s="28"/>
+      <c r="N302" s="28"/>
+      <c r="O302" s="28"/>
+      <c r="P302" s="28"/>
+      <c r="Q302" s="28"/>
+      <c r="R302" s="28"/>
+      <c r="S302" s="28"/>
+      <c r="T302" s="28"/>
+      <c r="U302" s="5"/>
+    </row>
+    <row r="303" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B303" s="4"/>
+      <c r="C303" s="28"/>
+      <c r="D303" s="28"/>
+      <c r="E303" s="28"/>
+      <c r="F303" s="28"/>
+      <c r="G303" s="28"/>
+      <c r="H303" s="28"/>
+      <c r="I303" s="28"/>
+      <c r="J303" s="28"/>
+      <c r="K303" s="28"/>
+      <c r="L303" s="28"/>
+      <c r="M303" s="28"/>
+      <c r="N303" s="28"/>
+      <c r="O303" s="28"/>
+      <c r="P303" s="28"/>
+      <c r="Q303" s="28"/>
+      <c r="R303" s="28"/>
+      <c r="S303" s="28"/>
+      <c r="T303" s="28"/>
+      <c r="U303" s="5"/>
+    </row>
+    <row r="304" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B304" s="4"/>
+      <c r="C304" s="28"/>
+      <c r="D304" s="28"/>
+      <c r="E304" s="28"/>
+      <c r="F304" s="28"/>
+      <c r="G304" s="28"/>
+      <c r="H304" s="28"/>
+      <c r="I304" s="28"/>
+      <c r="J304" s="28"/>
+      <c r="K304" s="28"/>
+      <c r="L304" s="28"/>
+      <c r="M304" s="28"/>
+      <c r="N304" s="28"/>
+      <c r="O304" s="28"/>
+      <c r="P304" s="28"/>
+      <c r="Q304" s="28"/>
+      <c r="R304" s="28"/>
+      <c r="S304" s="28"/>
+      <c r="T304" s="28"/>
+      <c r="U304" s="5"/>
+    </row>
+    <row r="305" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B305" s="7"/>
+      <c r="C305" s="8"/>
+      <c r="D305" s="8"/>
+      <c r="E305" s="8"/>
+      <c r="F305" s="8"/>
+      <c r="G305" s="8"/>
+      <c r="H305" s="8"/>
+      <c r="I305" s="8"/>
+      <c r="J305" s="8"/>
+      <c r="K305" s="8"/>
+      <c r="L305" s="8"/>
+      <c r="M305" s="8"/>
+      <c r="N305" s="8"/>
+      <c r="O305" s="8"/>
+      <c r="P305" s="8"/>
+      <c r="Q305" s="8"/>
+      <c r="R305" s="8"/>
+      <c r="S305" s="8"/>
+      <c r="T305" s="8"/>
+      <c r="U305" s="9"/>
+    </row>
+    <row r="308" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B308" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
+      <c r="H308" s="2"/>
+      <c r="I308" s="2"/>
+      <c r="J308" s="2"/>
+      <c r="K308" s="2"/>
+      <c r="L308" s="2"/>
+      <c r="M308" s="2"/>
+      <c r="N308" s="2"/>
+      <c r="O308" s="2"/>
+      <c r="P308" s="2"/>
+      <c r="Q308" s="2"/>
+      <c r="R308" s="2"/>
+      <c r="S308" s="2"/>
+      <c r="T308" s="2"/>
+      <c r="U308" s="2"/>
+      <c r="V308" s="3"/>
+    </row>
+    <row r="309" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B309" s="4"/>
+      <c r="C309" s="28"/>
+      <c r="D309" s="28"/>
+      <c r="E309" s="28"/>
+      <c r="F309" s="28"/>
+      <c r="G309" s="28"/>
+      <c r="H309" s="28"/>
+      <c r="I309" s="28"/>
+      <c r="J309" s="28"/>
+      <c r="K309" s="28"/>
+      <c r="L309" s="28"/>
+      <c r="M309" s="28"/>
+      <c r="N309" s="28"/>
+      <c r="O309" s="28"/>
+      <c r="P309" s="28"/>
+      <c r="Q309" s="28"/>
+      <c r="R309" s="28"/>
+      <c r="S309" s="28"/>
+      <c r="T309" s="28"/>
+      <c r="U309" s="28"/>
+      <c r="V309" s="5"/>
+    </row>
+    <row r="310" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B310" s="4"/>
+      <c r="C310" s="28"/>
+      <c r="D310" s="28"/>
+      <c r="E310" s="28"/>
+      <c r="F310" s="28"/>
+      <c r="G310" s="28"/>
+      <c r="H310" s="28"/>
+      <c r="I310" s="28"/>
+      <c r="J310" s="28"/>
+      <c r="K310" s="28"/>
+      <c r="L310" s="28"/>
+      <c r="M310" s="28"/>
+      <c r="N310" s="28"/>
+      <c r="O310" s="28"/>
+      <c r="P310" s="28"/>
+      <c r="Q310" s="28"/>
+      <c r="R310" s="28"/>
+      <c r="S310" s="28"/>
+      <c r="T310" s="28"/>
+      <c r="U310" s="28"/>
+      <c r="V310" s="5"/>
+    </row>
+    <row r="311" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B311" s="4"/>
+      <c r="C311" s="28"/>
+      <c r="D311" s="28"/>
+      <c r="E311" s="28"/>
+      <c r="F311" s="28"/>
+      <c r="G311" s="28"/>
+      <c r="H311" s="28"/>
+      <c r="I311" s="28"/>
+      <c r="J311" s="28"/>
+      <c r="K311" s="28"/>
+      <c r="L311" s="28"/>
+      <c r="M311" s="28"/>
+      <c r="N311" s="28"/>
+      <c r="O311" s="28"/>
+      <c r="P311" s="28"/>
+      <c r="Q311" s="28"/>
+      <c r="R311" s="28"/>
+      <c r="S311" s="28"/>
+      <c r="T311" s="28"/>
+      <c r="U311" s="28"/>
+      <c r="V311" s="5"/>
+    </row>
+    <row r="312" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B312" s="4"/>
+      <c r="C312" s="28"/>
+      <c r="D312" s="28"/>
+      <c r="E312" s="28"/>
+      <c r="F312" s="28"/>
+      <c r="G312" s="28"/>
+      <c r="H312" s="28"/>
+      <c r="I312" s="28"/>
+      <c r="J312" s="28"/>
+      <c r="K312" s="28"/>
+      <c r="L312" s="28"/>
+      <c r="M312" s="28"/>
+      <c r="N312" s="28"/>
+      <c r="O312" s="28"/>
+      <c r="P312" s="28"/>
+      <c r="Q312" s="28"/>
+      <c r="R312" s="28"/>
+      <c r="S312" s="28"/>
+      <c r="T312" s="28"/>
+      <c r="U312" s="28"/>
+      <c r="V312" s="5"/>
+    </row>
+    <row r="313" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B313" s="4"/>
+      <c r="C313" s="28"/>
+      <c r="D313" s="28"/>
+      <c r="E313" s="28"/>
+      <c r="F313" s="28"/>
+      <c r="G313" s="28"/>
+      <c r="H313" s="28"/>
+      <c r="I313" s="28"/>
+      <c r="J313" s="28"/>
+      <c r="K313" s="28"/>
+      <c r="L313" s="28"/>
+      <c r="M313" s="28"/>
+      <c r="N313" s="28"/>
+      <c r="O313" s="28"/>
+      <c r="P313" s="28"/>
+      <c r="Q313" s="28"/>
+      <c r="R313" s="28"/>
+      <c r="S313" s="28"/>
+      <c r="T313" s="28"/>
+      <c r="U313" s="28"/>
+      <c r="V313" s="5"/>
+    </row>
+    <row r="314" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B314" s="4"/>
+      <c r="C314" s="28"/>
+      <c r="D314" s="28"/>
+      <c r="E314" s="28"/>
+      <c r="F314" s="28"/>
+      <c r="G314" s="28"/>
+      <c r="H314" s="28"/>
+      <c r="I314" s="28"/>
+      <c r="J314" s="28"/>
+      <c r="K314" s="28"/>
+      <c r="L314" s="28"/>
+      <c r="M314" s="28"/>
+      <c r="N314" s="28"/>
+      <c r="O314" s="28"/>
+      <c r="P314" s="28"/>
+      <c r="Q314" s="28"/>
+      <c r="R314" s="28"/>
+      <c r="S314" s="28"/>
+      <c r="T314" s="28"/>
+      <c r="U314" s="28"/>
+      <c r="V314" s="5"/>
+    </row>
+    <row r="315" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B315" s="4"/>
+      <c r="C315" s="28"/>
+      <c r="D315" s="28"/>
+      <c r="E315" s="28"/>
+      <c r="F315" s="28"/>
+      <c r="G315" s="28"/>
+      <c r="H315" s="28"/>
+      <c r="I315" s="28"/>
+      <c r="J315" s="28"/>
+      <c r="K315" s="28"/>
+      <c r="L315" s="28"/>
+      <c r="M315" s="28"/>
+      <c r="N315" s="28"/>
+      <c r="O315" s="28"/>
+      <c r="P315" s="28"/>
+      <c r="Q315" s="28"/>
+      <c r="R315" s="28"/>
+      <c r="S315" s="28"/>
+      <c r="T315" s="28"/>
+      <c r="U315" s="28"/>
+      <c r="V315" s="5"/>
+    </row>
+    <row r="316" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B316" s="4"/>
+      <c r="C316" s="28"/>
+      <c r="D316" s="28"/>
+      <c r="E316" s="28"/>
+      <c r="F316" s="28"/>
+      <c r="G316" s="28"/>
+      <c r="H316" s="28"/>
+      <c r="I316" s="28"/>
+      <c r="J316" s="28"/>
+      <c r="K316" s="28"/>
+      <c r="L316" s="28"/>
+      <c r="M316" s="28"/>
+      <c r="N316" s="28"/>
+      <c r="O316" s="28"/>
+      <c r="P316" s="28"/>
+      <c r="Q316" s="28"/>
+      <c r="R316" s="28"/>
+      <c r="S316" s="28"/>
+      <c r="T316" s="28"/>
+      <c r="U316" s="28"/>
+      <c r="V316" s="5"/>
+    </row>
+    <row r="317" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B317" s="4"/>
+      <c r="C317" s="28"/>
+      <c r="D317" s="28"/>
+      <c r="E317" s="28"/>
+      <c r="F317" s="28"/>
+      <c r="G317" s="28"/>
+      <c r="H317" s="28"/>
+      <c r="I317" s="28"/>
+      <c r="J317" s="28"/>
+      <c r="K317" s="28"/>
+      <c r="L317" s="28"/>
+      <c r="M317" s="28"/>
+      <c r="N317" s="28"/>
+      <c r="O317" s="28"/>
+      <c r="P317" s="28"/>
+      <c r="Q317" s="28"/>
+      <c r="R317" s="28"/>
+      <c r="S317" s="28"/>
+      <c r="T317" s="28"/>
+      <c r="U317" s="28"/>
+      <c r="V317" s="5"/>
+    </row>
+    <row r="318" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B318" s="4"/>
+      <c r="C318" s="28"/>
+      <c r="D318" s="28"/>
+      <c r="E318" s="28"/>
+      <c r="F318" s="28"/>
+      <c r="G318" s="28"/>
+      <c r="H318" s="28"/>
+      <c r="I318" s="28"/>
+      <c r="J318" s="28"/>
+      <c r="K318" s="28"/>
+      <c r="L318" s="28"/>
+      <c r="M318" s="28"/>
+      <c r="N318" s="28"/>
+      <c r="O318" s="28"/>
+      <c r="P318" s="28"/>
+      <c r="Q318" s="28"/>
+      <c r="R318" s="28"/>
+      <c r="S318" s="28"/>
+      <c r="T318" s="28"/>
+      <c r="U318" s="28"/>
+      <c r="V318" s="5"/>
+    </row>
+    <row r="319" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B319" s="4"/>
+      <c r="C319" s="28"/>
+      <c r="D319" s="28"/>
+      <c r="E319" s="28"/>
+      <c r="F319" s="28"/>
+      <c r="G319" s="28"/>
+      <c r="H319" s="28"/>
+      <c r="I319" s="28"/>
+      <c r="J319" s="28"/>
+      <c r="K319" s="28"/>
+      <c r="L319" s="28"/>
+      <c r="M319" s="28"/>
+      <c r="N319" s="28"/>
+      <c r="O319" s="28"/>
+      <c r="P319" s="28"/>
+      <c r="Q319" s="28"/>
+      <c r="R319" s="28"/>
+      <c r="S319" s="28"/>
+      <c r="T319" s="28"/>
+      <c r="U319" s="28"/>
+      <c r="V319" s="5"/>
+    </row>
+    <row r="320" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B320" s="4"/>
+      <c r="C320" s="28"/>
+      <c r="D320" s="28"/>
+      <c r="E320" s="28"/>
+      <c r="F320" s="28"/>
+      <c r="G320" s="28"/>
+      <c r="H320" s="28"/>
+      <c r="I320" s="28"/>
+      <c r="J320" s="28"/>
+      <c r="K320" s="28"/>
+      <c r="L320" s="28"/>
+      <c r="M320" s="28"/>
+      <c r="N320" s="28"/>
+      <c r="O320" s="28"/>
+      <c r="P320" s="28"/>
+      <c r="Q320" s="28"/>
+      <c r="R320" s="28"/>
+      <c r="S320" s="28"/>
+      <c r="T320" s="28"/>
+      <c r="U320" s="28"/>
+      <c r="V320" s="5"/>
+    </row>
+    <row r="321" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B321" s="4"/>
+      <c r="C321" s="28"/>
+      <c r="D321" s="28"/>
+      <c r="E321" s="28"/>
+      <c r="F321" s="28"/>
+      <c r="G321" s="28"/>
+      <c r="H321" s="28"/>
+      <c r="I321" s="28"/>
+      <c r="J321" s="28"/>
+      <c r="K321" s="28"/>
+      <c r="L321" s="28"/>
+      <c r="M321" s="28"/>
+      <c r="N321" s="28"/>
+      <c r="O321" s="28"/>
+      <c r="P321" s="28"/>
+      <c r="Q321" s="28"/>
+      <c r="R321" s="28"/>
+      <c r="S321" s="28"/>
+      <c r="T321" s="28"/>
+      <c r="U321" s="28"/>
+      <c r="V321" s="5"/>
+    </row>
+    <row r="322" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B322" s="4"/>
+      <c r="C322" s="28"/>
+      <c r="D322" s="28"/>
+      <c r="E322" s="28"/>
+      <c r="F322" s="28"/>
+      <c r="G322" s="28"/>
+      <c r="H322" s="28"/>
+      <c r="I322" s="28"/>
+      <c r="J322" s="28"/>
+      <c r="K322" s="28"/>
+      <c r="L322" s="28"/>
+      <c r="M322" s="28"/>
+      <c r="N322" s="28"/>
+      <c r="O322" s="28"/>
+      <c r="P322" s="28"/>
+      <c r="Q322" s="28"/>
+      <c r="R322" s="28"/>
+      <c r="S322" s="28"/>
+      <c r="T322" s="28"/>
+      <c r="U322" s="28"/>
+      <c r="V322" s="5"/>
+    </row>
+    <row r="323" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B323" s="4"/>
+      <c r="C323" s="28"/>
+      <c r="D323" s="28"/>
+      <c r="E323" s="28"/>
+      <c r="F323" s="28"/>
+      <c r="G323" s="28"/>
+      <c r="H323" s="28"/>
+      <c r="I323" s="28"/>
+      <c r="J323" s="28"/>
+      <c r="K323" s="28"/>
+      <c r="L323" s="28"/>
+      <c r="M323" s="28"/>
+      <c r="N323" s="28"/>
+      <c r="O323" s="28"/>
+      <c r="P323" s="28"/>
+      <c r="Q323" s="28"/>
+      <c r="R323" s="28"/>
+      <c r="S323" s="28"/>
+      <c r="T323" s="28"/>
+      <c r="U323" s="28"/>
+      <c r="V323" s="5"/>
+    </row>
+    <row r="324" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B324" s="4"/>
+      <c r="C324" s="28"/>
+      <c r="D324" s="28"/>
+      <c r="E324" s="28"/>
+      <c r="F324" s="28"/>
+      <c r="G324" s="28"/>
+      <c r="H324" s="28"/>
+      <c r="I324" s="28"/>
+      <c r="J324" s="28"/>
+      <c r="K324" s="28"/>
+      <c r="L324" s="28"/>
+      <c r="M324" s="28"/>
+      <c r="N324" s="28"/>
+      <c r="O324" s="28"/>
+      <c r="P324" s="28"/>
+      <c r="Q324" s="28"/>
+      <c r="R324" s="28"/>
+      <c r="S324" s="28"/>
+      <c r="T324" s="28"/>
+      <c r="U324" s="28"/>
+      <c r="V324" s="5"/>
+    </row>
+    <row r="325" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B325" s="4"/>
+      <c r="C325" s="28"/>
+      <c r="D325" s="28"/>
+      <c r="E325" s="28"/>
+      <c r="F325" s="28"/>
+      <c r="G325" s="28"/>
+      <c r="H325" s="28"/>
+      <c r="I325" s="28"/>
+      <c r="J325" s="28"/>
+      <c r="K325" s="28"/>
+      <c r="L325" s="28"/>
+      <c r="M325" s="28"/>
+      <c r="N325" s="28"/>
+      <c r="O325" s="28"/>
+      <c r="P325" s="28"/>
+      <c r="Q325" s="28"/>
+      <c r="R325" s="28"/>
+      <c r="S325" s="28"/>
+      <c r="T325" s="28"/>
+      <c r="U325" s="28"/>
+      <c r="V325" s="5"/>
+    </row>
+    <row r="326" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B326" s="4"/>
+      <c r="C326" s="28"/>
+      <c r="D326" s="28"/>
+      <c r="E326" s="28"/>
+      <c r="F326" s="28"/>
+      <c r="G326" s="28"/>
+      <c r="H326" s="28"/>
+      <c r="I326" s="28"/>
+      <c r="J326" s="28"/>
+      <c r="K326" s="28"/>
+      <c r="L326" s="28"/>
+      <c r="M326" s="28"/>
+      <c r="N326" s="28"/>
+      <c r="O326" s="28"/>
+      <c r="P326" s="28"/>
+      <c r="Q326" s="28"/>
+      <c r="R326" s="28"/>
+      <c r="S326" s="28"/>
+      <c r="T326" s="28"/>
+      <c r="U326" s="28"/>
+      <c r="V326" s="5"/>
+    </row>
+    <row r="327" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B327" s="4"/>
+      <c r="C327" s="28"/>
+      <c r="D327" s="28"/>
+      <c r="E327" s="28"/>
+      <c r="F327" s="28"/>
+      <c r="G327" s="28"/>
+      <c r="H327" s="28"/>
+      <c r="I327" s="28"/>
+      <c r="J327" s="28"/>
+      <c r="K327" s="28"/>
+      <c r="L327" s="28"/>
+      <c r="M327" s="28"/>
+      <c r="N327" s="28"/>
+      <c r="O327" s="28"/>
+      <c r="P327" s="28"/>
+      <c r="Q327" s="28"/>
+      <c r="R327" s="28"/>
+      <c r="S327" s="28"/>
+      <c r="T327" s="28"/>
+      <c r="U327" s="28"/>
+      <c r="V327" s="5"/>
+    </row>
+    <row r="328" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B328" s="4"/>
+      <c r="C328" s="28"/>
+      <c r="D328" s="28"/>
+      <c r="E328" s="28"/>
+      <c r="F328" s="28"/>
+      <c r="G328" s="28"/>
+      <c r="H328" s="28"/>
+      <c r="I328" s="28"/>
+      <c r="J328" s="28"/>
+      <c r="K328" s="28"/>
+      <c r="L328" s="28"/>
+      <c r="M328" s="28"/>
+      <c r="N328" s="28"/>
+      <c r="O328" s="28"/>
+      <c r="P328" s="28"/>
+      <c r="Q328" s="28"/>
+      <c r="R328" s="28"/>
+      <c r="S328" s="28"/>
+      <c r="T328" s="28"/>
+      <c r="U328" s="28"/>
+      <c r="V328" s="5"/>
+    </row>
+    <row r="329" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B329" s="4"/>
+      <c r="C329" s="28"/>
+      <c r="D329" s="28"/>
+      <c r="E329" s="28"/>
+      <c r="F329" s="28"/>
+      <c r="G329" s="28"/>
+      <c r="H329" s="28"/>
+      <c r="I329" s="28"/>
+      <c r="J329" s="28"/>
+      <c r="K329" s="28"/>
+      <c r="L329" s="28"/>
+      <c r="M329" s="28"/>
+      <c r="N329" s="28"/>
+      <c r="O329" s="28"/>
+      <c r="P329" s="28"/>
+      <c r="Q329" s="28"/>
+      <c r="R329" s="28"/>
+      <c r="S329" s="28"/>
+      <c r="T329" s="28"/>
+      <c r="U329" s="28"/>
+      <c r="V329" s="5"/>
+    </row>
+    <row r="330" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B330" s="4"/>
+      <c r="C330" s="28"/>
+      <c r="D330" s="28"/>
+      <c r="E330" s="28"/>
+      <c r="F330" s="28"/>
+      <c r="G330" s="28"/>
+      <c r="H330" s="28"/>
+      <c r="I330" s="28"/>
+      <c r="J330" s="28"/>
+      <c r="K330" s="28"/>
+      <c r="L330" s="28"/>
+      <c r="M330" s="28"/>
+      <c r="N330" s="28"/>
+      <c r="O330" s="28"/>
+      <c r="P330" s="28"/>
+      <c r="Q330" s="28"/>
+      <c r="R330" s="28"/>
+      <c r="S330" s="28"/>
+      <c r="T330" s="28"/>
+      <c r="U330" s="28"/>
+      <c r="V330" s="5"/>
+    </row>
+    <row r="331" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B331" s="4"/>
+      <c r="C331" s="28"/>
+      <c r="D331" s="28"/>
+      <c r="E331" s="28"/>
+      <c r="F331" s="28"/>
+      <c r="G331" s="28"/>
+      <c r="H331" s="28"/>
+      <c r="I331" s="28"/>
+      <c r="J331" s="28"/>
+      <c r="K331" s="28"/>
+      <c r="L331" s="28"/>
+      <c r="M331" s="28"/>
+      <c r="N331" s="28"/>
+      <c r="O331" s="28"/>
+      <c r="P331" s="28"/>
+      <c r="Q331" s="28"/>
+      <c r="R331" s="28"/>
+      <c r="S331" s="28"/>
+      <c r="T331" s="28"/>
+      <c r="U331" s="28"/>
+      <c r="V331" s="5"/>
+    </row>
+    <row r="332" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B332" s="4"/>
+      <c r="C332" s="28"/>
+      <c r="D332" s="28"/>
+      <c r="E332" s="28"/>
+      <c r="F332" s="28"/>
+      <c r="G332" s="28"/>
+      <c r="H332" s="28"/>
+      <c r="I332" s="28"/>
+      <c r="J332" s="28"/>
+      <c r="K332" s="28"/>
+      <c r="L332" s="28"/>
+      <c r="M332" s="28"/>
+      <c r="N332" s="28"/>
+      <c r="O332" s="28"/>
+      <c r="P332" s="28"/>
+      <c r="Q332" s="28"/>
+      <c r="R332" s="28"/>
+      <c r="S332" s="28"/>
+      <c r="T332" s="28"/>
+      <c r="U332" s="28"/>
+      <c r="V332" s="5"/>
+    </row>
+    <row r="333" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B333" s="4"/>
+      <c r="C333" s="28"/>
+      <c r="D333" s="28"/>
+      <c r="E333" s="28"/>
+      <c r="F333" s="28"/>
+      <c r="G333" s="28"/>
+      <c r="H333" s="28"/>
+      <c r="I333" s="28"/>
+      <c r="J333" s="28"/>
+      <c r="K333" s="28"/>
+      <c r="L333" s="28"/>
+      <c r="M333" s="28"/>
+      <c r="N333" s="28"/>
+      <c r="O333" s="28"/>
+      <c r="P333" s="28"/>
+      <c r="Q333" s="28"/>
+      <c r="R333" s="28"/>
+      <c r="S333" s="28"/>
+      <c r="T333" s="28"/>
+      <c r="U333" s="28"/>
+      <c r="V333" s="5"/>
+    </row>
+    <row r="334" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B334" s="4"/>
+      <c r="C334" s="28"/>
+      <c r="D334" s="28"/>
+      <c r="E334" s="28"/>
+      <c r="F334" s="28"/>
+      <c r="G334" s="28"/>
+      <c r="H334" s="28"/>
+      <c r="I334" s="28"/>
+      <c r="J334" s="28"/>
+      <c r="K334" s="28"/>
+      <c r="L334" s="28"/>
+      <c r="M334" s="28"/>
+      <c r="N334" s="28"/>
+      <c r="O334" s="28"/>
+      <c r="P334" s="28"/>
+      <c r="Q334" s="28"/>
+      <c r="R334" s="28"/>
+      <c r="S334" s="28"/>
+      <c r="T334" s="28"/>
+      <c r="U334" s="28"/>
+      <c r="V334" s="5"/>
+    </row>
+    <row r="335" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B335" s="4"/>
+      <c r="C335" s="28"/>
+      <c r="D335" s="28"/>
+      <c r="E335" s="28"/>
+      <c r="F335" s="28"/>
+      <c r="G335" s="28"/>
+      <c r="H335" s="28"/>
+      <c r="I335" s="28"/>
+      <c r="J335" s="28"/>
+      <c r="K335" s="28"/>
+      <c r="L335" s="28"/>
+      <c r="M335" s="28"/>
+      <c r="N335" s="28"/>
+      <c r="O335" s="28"/>
+      <c r="P335" s="28"/>
+      <c r="Q335" s="28"/>
+      <c r="R335" s="28"/>
+      <c r="S335" s="28"/>
+      <c r="T335" s="28"/>
+      <c r="U335" s="28"/>
+      <c r="V335" s="5"/>
+    </row>
+    <row r="336" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B336" s="4"/>
+      <c r="C336" s="28"/>
+      <c r="D336" s="28"/>
+      <c r="E336" s="28"/>
+      <c r="F336" s="28"/>
+      <c r="G336" s="28"/>
+      <c r="H336" s="28"/>
+      <c r="I336" s="28"/>
+      <c r="J336" s="28"/>
+      <c r="K336" s="28"/>
+      <c r="L336" s="28"/>
+      <c r="M336" s="28"/>
+      <c r="N336" s="28"/>
+      <c r="O336" s="28"/>
+      <c r="P336" s="28"/>
+      <c r="Q336" s="28"/>
+      <c r="R336" s="28"/>
+      <c r="S336" s="28"/>
+      <c r="T336" s="28"/>
+      <c r="U336" s="28"/>
+      <c r="V336" s="5"/>
+    </row>
+    <row r="337" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B337" s="4"/>
+      <c r="C337" s="28"/>
+      <c r="D337" s="28"/>
+      <c r="E337" s="28"/>
+      <c r="F337" s="28"/>
+      <c r="G337" s="28"/>
+      <c r="H337" s="28"/>
+      <c r="I337" s="28"/>
+      <c r="J337" s="28"/>
+      <c r="K337" s="28"/>
+      <c r="L337" s="28"/>
+      <c r="M337" s="28"/>
+      <c r="N337" s="28"/>
+      <c r="O337" s="28"/>
+      <c r="P337" s="28"/>
+      <c r="Q337" s="28"/>
+      <c r="R337" s="28"/>
+      <c r="S337" s="28"/>
+      <c r="T337" s="28"/>
+      <c r="U337" s="28"/>
+      <c r="V337" s="5"/>
+    </row>
+    <row r="338" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B338" s="4"/>
+      <c r="C338" s="28"/>
+      <c r="D338" s="28"/>
+      <c r="E338" s="28"/>
+      <c r="F338" s="28"/>
+      <c r="G338" s="28"/>
+      <c r="H338" s="28"/>
+      <c r="I338" s="28"/>
+      <c r="J338" s="28"/>
+      <c r="K338" s="28"/>
+      <c r="L338" s="28"/>
+      <c r="M338" s="28"/>
+      <c r="N338" s="28"/>
+      <c r="O338" s="28"/>
+      <c r="P338" s="28"/>
+      <c r="Q338" s="28"/>
+      <c r="R338" s="28"/>
+      <c r="S338" s="28"/>
+      <c r="T338" s="28"/>
+      <c r="U338" s="28"/>
+      <c r="V338" s="5"/>
+    </row>
+    <row r="339" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B339" s="4"/>
+      <c r="C339" s="28"/>
+      <c r="D339" s="28"/>
+      <c r="E339" s="28"/>
+      <c r="F339" s="28"/>
+      <c r="G339" s="28"/>
+      <c r="H339" s="28"/>
+      <c r="I339" s="28"/>
+      <c r="J339" s="28"/>
+      <c r="K339" s="28"/>
+      <c r="L339" s="28"/>
+      <c r="M339" s="28"/>
+      <c r="N339" s="28"/>
+      <c r="O339" s="28"/>
+      <c r="P339" s="28"/>
+      <c r="Q339" s="28"/>
+      <c r="R339" s="28"/>
+      <c r="S339" s="28"/>
+      <c r="T339" s="28"/>
+      <c r="U339" s="28"/>
+      <c r="V339" s="5"/>
+    </row>
+    <row r="340" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B340" s="4"/>
+      <c r="C340" s="28"/>
+      <c r="D340" s="28"/>
+      <c r="E340" s="28"/>
+      <c r="F340" s="28"/>
+      <c r="G340" s="28"/>
+      <c r="H340" s="28"/>
+      <c r="I340" s="28"/>
+      <c r="J340" s="28"/>
+      <c r="K340" s="28"/>
+      <c r="L340" s="28"/>
+      <c r="M340" s="28"/>
+      <c r="N340" s="28"/>
+      <c r="O340" s="28"/>
+      <c r="P340" s="28"/>
+      <c r="Q340" s="28"/>
+      <c r="R340" s="28"/>
+      <c r="S340" s="28"/>
+      <c r="T340" s="28"/>
+      <c r="U340" s="28"/>
+      <c r="V340" s="5"/>
+    </row>
+    <row r="341" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B341" s="4"/>
+      <c r="C341" s="28"/>
+      <c r="D341" s="28"/>
+      <c r="E341" s="28"/>
+      <c r="F341" s="28"/>
+      <c r="G341" s="28"/>
+      <c r="H341" s="28"/>
+      <c r="I341" s="28"/>
+      <c r="J341" s="28"/>
+      <c r="K341" s="28"/>
+      <c r="L341" s="28"/>
+      <c r="M341" s="28"/>
+      <c r="N341" s="28"/>
+      <c r="O341" s="28"/>
+      <c r="P341" s="28"/>
+      <c r="Q341" s="28"/>
+      <c r="R341" s="28"/>
+      <c r="S341" s="28"/>
+      <c r="T341" s="28"/>
+      <c r="U341" s="28"/>
+      <c r="V341" s="5"/>
+    </row>
+    <row r="342" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B342" s="4"/>
+      <c r="C342" s="28"/>
+      <c r="D342" s="28"/>
+      <c r="E342" s="28"/>
+      <c r="F342" s="28"/>
+      <c r="G342" s="28"/>
+      <c r="H342" s="28"/>
+      <c r="I342" s="28"/>
+      <c r="J342" s="28"/>
+      <c r="K342" s="28"/>
+      <c r="L342" s="28"/>
+      <c r="M342" s="28"/>
+      <c r="N342" s="28"/>
+      <c r="O342" s="28"/>
+      <c r="P342" s="28"/>
+      <c r="Q342" s="28"/>
+      <c r="R342" s="28"/>
+      <c r="S342" s="28"/>
+      <c r="T342" s="28"/>
+      <c r="U342" s="28"/>
+      <c r="V342" s="5"/>
+    </row>
+    <row r="343" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B343" s="4"/>
+      <c r="C343" s="28"/>
+      <c r="D343" s="28"/>
+      <c r="E343" s="28"/>
+      <c r="F343" s="28"/>
+      <c r="G343" s="28"/>
+      <c r="H343" s="28"/>
+      <c r="I343" s="28"/>
+      <c r="J343" s="28"/>
+      <c r="K343" s="28"/>
+      <c r="L343" s="28"/>
+      <c r="M343" s="28"/>
+      <c r="N343" s="28"/>
+      <c r="O343" s="28"/>
+      <c r="P343" s="28"/>
+      <c r="Q343" s="28"/>
+      <c r="R343" s="28"/>
+      <c r="S343" s="28"/>
+      <c r="T343" s="28"/>
+      <c r="U343" s="28"/>
+      <c r="V343" s="5"/>
+    </row>
+    <row r="344" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B344" s="4"/>
+      <c r="C344" s="28"/>
+      <c r="D344" s="28"/>
+      <c r="E344" s="28"/>
+      <c r="F344" s="28"/>
+      <c r="G344" s="28"/>
+      <c r="H344" s="28"/>
+      <c r="I344" s="28"/>
+      <c r="J344" s="28"/>
+      <c r="K344" s="28"/>
+      <c r="L344" s="28"/>
+      <c r="M344" s="28"/>
+      <c r="N344" s="28"/>
+      <c r="O344" s="28"/>
+      <c r="P344" s="28"/>
+      <c r="Q344" s="28"/>
+      <c r="R344" s="28"/>
+      <c r="S344" s="28"/>
+      <c r="T344" s="28"/>
+      <c r="U344" s="28"/>
+      <c r="V344" s="5"/>
+    </row>
+    <row r="345" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B345" s="4"/>
+      <c r="C345" s="28"/>
+      <c r="D345" s="28"/>
+      <c r="E345" s="28"/>
+      <c r="F345" s="28"/>
+      <c r="G345" s="28"/>
+      <c r="H345" s="28"/>
+      <c r="I345" s="28"/>
+      <c r="J345" s="28"/>
+      <c r="K345" s="28"/>
+      <c r="L345" s="28"/>
+      <c r="M345" s="28"/>
+      <c r="N345" s="28"/>
+      <c r="O345" s="28"/>
+      <c r="P345" s="28"/>
+      <c r="Q345" s="28"/>
+      <c r="R345" s="28"/>
+      <c r="S345" s="28"/>
+      <c r="T345" s="28"/>
+      <c r="U345" s="28"/>
+      <c r="V345" s="5"/>
+    </row>
+    <row r="346" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B346" s="4"/>
+      <c r="C346" s="28"/>
+      <c r="D346" s="28"/>
+      <c r="E346" s="28"/>
+      <c r="F346" s="28"/>
+      <c r="G346" s="28"/>
+      <c r="H346" s="28"/>
+      <c r="I346" s="28"/>
+      <c r="J346" s="28"/>
+      <c r="K346" s="28"/>
+      <c r="L346" s="28"/>
+      <c r="M346" s="28"/>
+      <c r="N346" s="28"/>
+      <c r="O346" s="28"/>
+      <c r="P346" s="28"/>
+      <c r="Q346" s="28"/>
+      <c r="R346" s="28"/>
+      <c r="S346" s="28"/>
+      <c r="T346" s="28"/>
+      <c r="U346" s="28"/>
+      <c r="V346" s="5"/>
+    </row>
+    <row r="347" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B347" s="4"/>
+      <c r="C347" s="28"/>
+      <c r="D347" s="28"/>
+      <c r="E347" s="28"/>
+      <c r="F347" s="28"/>
+      <c r="G347" s="28"/>
+      <c r="H347" s="28"/>
+      <c r="I347" s="28"/>
+      <c r="J347" s="28"/>
+      <c r="K347" s="28"/>
+      <c r="L347" s="28"/>
+      <c r="M347" s="28"/>
+      <c r="N347" s="28"/>
+      <c r="O347" s="28"/>
+      <c r="P347" s="28"/>
+      <c r="Q347" s="28"/>
+      <c r="R347" s="28"/>
+      <c r="S347" s="28"/>
+      <c r="T347" s="28"/>
+      <c r="U347" s="28"/>
+      <c r="V347" s="5"/>
+    </row>
+    <row r="348" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B348" s="4"/>
+      <c r="C348" s="28"/>
+      <c r="D348" s="28"/>
+      <c r="E348" s="28"/>
+      <c r="F348" s="28"/>
+      <c r="G348" s="28"/>
+      <c r="H348" s="28"/>
+      <c r="I348" s="28"/>
+      <c r="J348" s="28"/>
+      <c r="K348" s="28"/>
+      <c r="L348" s="28"/>
+      <c r="M348" s="28"/>
+      <c r="N348" s="28"/>
+      <c r="O348" s="28"/>
+      <c r="P348" s="28"/>
+      <c r="Q348" s="28"/>
+      <c r="R348" s="28"/>
+      <c r="S348" s="28"/>
+      <c r="T348" s="28"/>
+      <c r="U348" s="28"/>
+      <c r="V348" s="5"/>
+    </row>
+    <row r="349" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B349" s="4"/>
+      <c r="C349" s="28"/>
+      <c r="D349" s="28"/>
+      <c r="E349" s="28"/>
+      <c r="F349" s="28"/>
+      <c r="G349" s="28"/>
+      <c r="H349" s="28"/>
+      <c r="I349" s="28"/>
+      <c r="J349" s="28"/>
+      <c r="K349" s="28"/>
+      <c r="L349" s="28"/>
+      <c r="M349" s="28"/>
+      <c r="N349" s="28"/>
+      <c r="O349" s="28"/>
+      <c r="P349" s="28"/>
+      <c r="Q349" s="28"/>
+      <c r="R349" s="28"/>
+      <c r="S349" s="28"/>
+      <c r="T349" s="28"/>
+      <c r="U349" s="28"/>
+      <c r="V349" s="5"/>
+    </row>
+    <row r="350" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B350" s="4"/>
+      <c r="C350" s="28"/>
+      <c r="D350" s="28"/>
+      <c r="E350" s="28"/>
+      <c r="F350" s="28"/>
+      <c r="G350" s="28"/>
+      <c r="H350" s="28"/>
+      <c r="I350" s="28"/>
+      <c r="J350" s="28"/>
+      <c r="K350" s="28"/>
+      <c r="L350" s="28"/>
+      <c r="M350" s="28"/>
+      <c r="N350" s="28"/>
+      <c r="O350" s="28"/>
+      <c r="P350" s="28"/>
+      <c r="Q350" s="28"/>
+      <c r="R350" s="28"/>
+      <c r="S350" s="28"/>
+      <c r="T350" s="28"/>
+      <c r="U350" s="28"/>
+      <c r="V350" s="5"/>
+    </row>
+    <row r="351" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B351" s="4"/>
+      <c r="C351" s="28"/>
+      <c r="D351" s="28"/>
+      <c r="E351" s="28"/>
+      <c r="F351" s="28"/>
+      <c r="G351" s="28"/>
+      <c r="H351" s="28"/>
+      <c r="I351" s="28"/>
+      <c r="J351" s="28"/>
+      <c r="K351" s="28"/>
+      <c r="L351" s="28"/>
+      <c r="M351" s="28"/>
+      <c r="N351" s="28"/>
+      <c r="O351" s="28"/>
+      <c r="P351" s="28"/>
+      <c r="Q351" s="28"/>
+      <c r="R351" s="28"/>
+      <c r="S351" s="28"/>
+      <c r="T351" s="28"/>
+      <c r="U351" s="28"/>
+      <c r="V351" s="5"/>
+    </row>
+    <row r="352" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B352" s="4"/>
+      <c r="C352" s="28"/>
+      <c r="D352" s="28"/>
+      <c r="E352" s="28"/>
+      <c r="F352" s="28"/>
+      <c r="G352" s="28"/>
+      <c r="H352" s="28"/>
+      <c r="I352" s="28"/>
+      <c r="J352" s="28"/>
+      <c r="K352" s="28"/>
+      <c r="L352" s="28"/>
+      <c r="M352" s="28"/>
+      <c r="N352" s="28"/>
+      <c r="O352" s="28"/>
+      <c r="P352" s="28"/>
+      <c r="Q352" s="28"/>
+      <c r="R352" s="28"/>
+      <c r="S352" s="28"/>
+      <c r="T352" s="28"/>
+      <c r="U352" s="28"/>
+      <c r="V352" s="5"/>
+    </row>
+    <row r="353" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B353" s="4"/>
+      <c r="C353" s="28"/>
+      <c r="D353" s="28"/>
+      <c r="E353" s="28"/>
+      <c r="F353" s="28"/>
+      <c r="G353" s="28"/>
+      <c r="H353" s="28"/>
+      <c r="I353" s="28"/>
+      <c r="J353" s="28"/>
+      <c r="K353" s="28"/>
+      <c r="L353" s="28"/>
+      <c r="M353" s="28"/>
+      <c r="N353" s="28"/>
+      <c r="O353" s="28"/>
+      <c r="P353" s="28"/>
+      <c r="Q353" s="28"/>
+      <c r="R353" s="28"/>
+      <c r="S353" s="28"/>
+      <c r="T353" s="28"/>
+      <c r="U353" s="28"/>
+      <c r="V353" s="5"/>
+    </row>
+    <row r="354" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B354" s="4"/>
+      <c r="C354" s="28"/>
+      <c r="D354" s="28"/>
+      <c r="E354" s="28"/>
+      <c r="F354" s="28"/>
+      <c r="G354" s="28"/>
+      <c r="H354" s="28"/>
+      <c r="I354" s="28"/>
+      <c r="J354" s="28"/>
+      <c r="K354" s="28"/>
+      <c r="L354" s="28"/>
+      <c r="M354" s="28"/>
+      <c r="N354" s="28"/>
+      <c r="O354" s="28"/>
+      <c r="P354" s="28"/>
+      <c r="Q354" s="28"/>
+      <c r="R354" s="28"/>
+      <c r="S354" s="28"/>
+      <c r="T354" s="28"/>
+      <c r="U354" s="28"/>
+      <c r="V354" s="5"/>
+    </row>
+    <row r="355" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B355" s="4"/>
+      <c r="C355" s="28"/>
+      <c r="D355" s="28"/>
+      <c r="E355" s="28"/>
+      <c r="F355" s="28"/>
+      <c r="G355" s="28"/>
+      <c r="H355" s="28"/>
+      <c r="I355" s="28"/>
+      <c r="J355" s="28"/>
+      <c r="K355" s="28"/>
+      <c r="L355" s="28"/>
+      <c r="M355" s="28"/>
+      <c r="N355" s="28"/>
+      <c r="O355" s="28"/>
+      <c r="P355" s="28"/>
+      <c r="Q355" s="28"/>
+      <c r="R355" s="28"/>
+      <c r="S355" s="28"/>
+      <c r="T355" s="28"/>
+      <c r="U355" s="28"/>
+      <c r="V355" s="5"/>
+    </row>
+    <row r="356" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B356" s="4"/>
+      <c r="C356" s="28"/>
+      <c r="D356" s="28"/>
+      <c r="E356" s="28"/>
+      <c r="F356" s="28"/>
+      <c r="G356" s="28"/>
+      <c r="H356" s="28"/>
+      <c r="I356" s="28"/>
+      <c r="J356" s="28"/>
+      <c r="K356" s="28"/>
+      <c r="L356" s="28"/>
+      <c r="M356" s="28"/>
+      <c r="N356" s="28"/>
+      <c r="O356" s="28"/>
+      <c r="P356" s="28"/>
+      <c r="Q356" s="28"/>
+      <c r="R356" s="28"/>
+      <c r="S356" s="28"/>
+      <c r="T356" s="28"/>
+      <c r="U356" s="28"/>
+      <c r="V356" s="5"/>
+    </row>
+    <row r="357" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B357" s="4"/>
+      <c r="C357" s="28"/>
+      <c r="D357" s="28"/>
+      <c r="E357" s="28"/>
+      <c r="F357" s="28"/>
+      <c r="G357" s="28"/>
+      <c r="H357" s="28"/>
+      <c r="I357" s="28"/>
+      <c r="J357" s="28"/>
+      <c r="K357" s="28"/>
+      <c r="L357" s="28"/>
+      <c r="M357" s="28"/>
+      <c r="N357" s="28"/>
+      <c r="O357" s="28"/>
+      <c r="P357" s="28"/>
+      <c r="Q357" s="28"/>
+      <c r="R357" s="28"/>
+      <c r="S357" s="28"/>
+      <c r="T357" s="28"/>
+      <c r="U357" s="28"/>
+      <c r="V357" s="5"/>
+    </row>
+    <row r="358" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B358" s="4"/>
+      <c r="C358" s="28"/>
+      <c r="D358" s="28"/>
+      <c r="E358" s="28"/>
+      <c r="F358" s="28"/>
+      <c r="G358" s="28"/>
+      <c r="H358" s="28"/>
+      <c r="I358" s="28"/>
+      <c r="J358" s="28"/>
+      <c r="K358" s="28"/>
+      <c r="L358" s="28"/>
+      <c r="M358" s="28"/>
+      <c r="N358" s="28"/>
+      <c r="O358" s="28"/>
+      <c r="P358" s="28"/>
+      <c r="Q358" s="28"/>
+      <c r="R358" s="28"/>
+      <c r="S358" s="28"/>
+      <c r="T358" s="28"/>
+      <c r="U358" s="28"/>
+      <c r="V358" s="5"/>
+    </row>
+    <row r="359" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B359" s="4"/>
+      <c r="C359" s="28"/>
+      <c r="D359" s="28"/>
+      <c r="E359" s="28"/>
+      <c r="F359" s="28"/>
+      <c r="G359" s="28"/>
+      <c r="H359" s="28"/>
+      <c r="I359" s="28"/>
+      <c r="J359" s="28"/>
+      <c r="K359" s="28"/>
+      <c r="L359" s="28"/>
+      <c r="M359" s="28"/>
+      <c r="N359" s="28"/>
+      <c r="O359" s="28"/>
+      <c r="P359" s="28"/>
+      <c r="Q359" s="28"/>
+      <c r="R359" s="28"/>
+      <c r="S359" s="28"/>
+      <c r="T359" s="28"/>
+      <c r="U359" s="28"/>
+      <c r="V359" s="5"/>
+    </row>
+    <row r="360" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B360" s="4"/>
+      <c r="C360" s="28"/>
+      <c r="D360" s="28"/>
+      <c r="E360" s="28"/>
+      <c r="F360" s="28"/>
+      <c r="G360" s="28"/>
+      <c r="H360" s="28"/>
+      <c r="I360" s="28"/>
+      <c r="J360" s="28"/>
+      <c r="K360" s="28"/>
+      <c r="L360" s="28"/>
+      <c r="M360" s="28"/>
+      <c r="N360" s="28"/>
+      <c r="O360" s="28"/>
+      <c r="P360" s="28"/>
+      <c r="Q360" s="28"/>
+      <c r="R360" s="28"/>
+      <c r="S360" s="28"/>
+      <c r="T360" s="28"/>
+      <c r="U360" s="28"/>
+      <c r="V360" s="5"/>
+    </row>
+    <row r="361" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B361" s="4"/>
+      <c r="C361" s="28"/>
+      <c r="D361" s="28"/>
+      <c r="E361" s="28"/>
+      <c r="F361" s="28"/>
+      <c r="G361" s="28"/>
+      <c r="H361" s="28"/>
+      <c r="I361" s="28"/>
+      <c r="J361" s="28"/>
+      <c r="K361" s="28"/>
+      <c r="L361" s="28"/>
+      <c r="M361" s="28"/>
+      <c r="N361" s="28"/>
+      <c r="O361" s="28"/>
+      <c r="P361" s="28"/>
+      <c r="Q361" s="28"/>
+      <c r="R361" s="28"/>
+      <c r="S361" s="28"/>
+      <c r="T361" s="28"/>
+      <c r="U361" s="28"/>
+      <c r="V361" s="5"/>
+    </row>
+    <row r="362" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B362" s="4"/>
+      <c r="C362" s="28"/>
+      <c r="D362" s="28"/>
+      <c r="E362" s="28"/>
+      <c r="F362" s="28"/>
+      <c r="G362" s="28"/>
+      <c r="H362" s="28"/>
+      <c r="I362" s="28"/>
+      <c r="J362" s="28"/>
+      <c r="K362" s="28"/>
+      <c r="L362" s="28"/>
+      <c r="M362" s="28"/>
+      <c r="N362" s="28"/>
+      <c r="O362" s="28"/>
+      <c r="P362" s="28"/>
+      <c r="Q362" s="28"/>
+      <c r="R362" s="28"/>
+      <c r="S362" s="28"/>
+      <c r="T362" s="28"/>
+      <c r="U362" s="28"/>
+      <c r="V362" s="5"/>
+    </row>
+    <row r="363" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B363" s="4"/>
+      <c r="C363" s="28"/>
+      <c r="D363" s="28"/>
+      <c r="E363" s="28"/>
+      <c r="F363" s="28"/>
+      <c r="G363" s="28"/>
+      <c r="H363" s="28"/>
+      <c r="I363" s="28"/>
+      <c r="J363" s="28"/>
+      <c r="K363" s="28"/>
+      <c r="L363" s="28"/>
+      <c r="M363" s="28"/>
+      <c r="N363" s="28"/>
+      <c r="O363" s="28"/>
+      <c r="P363" s="28"/>
+      <c r="Q363" s="28"/>
+      <c r="R363" s="28"/>
+      <c r="S363" s="28"/>
+      <c r="T363" s="28"/>
+      <c r="U363" s="28"/>
+      <c r="V363" s="5"/>
+    </row>
+    <row r="364" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B364" s="4"/>
+      <c r="C364" s="28"/>
+      <c r="D364" s="28"/>
+      <c r="E364" s="28"/>
+      <c r="F364" s="28"/>
+      <c r="G364" s="28"/>
+      <c r="H364" s="28"/>
+      <c r="I364" s="28"/>
+      <c r="J364" s="28"/>
+      <c r="K364" s="28"/>
+      <c r="L364" s="28"/>
+      <c r="M364" s="28"/>
+      <c r="N364" s="28"/>
+      <c r="O364" s="28"/>
+      <c r="P364" s="28"/>
+      <c r="Q364" s="28"/>
+      <c r="R364" s="28"/>
+      <c r="S364" s="28"/>
+      <c r="T364" s="28"/>
+      <c r="U364" s="28"/>
+      <c r="V364" s="5"/>
+    </row>
+    <row r="365" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B365" s="4"/>
+      <c r="C365" s="28"/>
+      <c r="D365" s="28"/>
+      <c r="E365" s="28"/>
+      <c r="F365" s="28"/>
+      <c r="G365" s="28"/>
+      <c r="H365" s="28"/>
+      <c r="I365" s="28"/>
+      <c r="J365" s="28"/>
+      <c r="K365" s="28"/>
+      <c r="L365" s="28"/>
+      <c r="M365" s="28"/>
+      <c r="N365" s="28"/>
+      <c r="O365" s="28"/>
+      <c r="P365" s="28"/>
+      <c r="Q365" s="28"/>
+      <c r="R365" s="28"/>
+      <c r="S365" s="28"/>
+      <c r="T365" s="28"/>
+      <c r="U365" s="28"/>
+      <c r="V365" s="5"/>
+    </row>
+    <row r="366" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B366" s="4"/>
+      <c r="C366" s="28"/>
+      <c r="D366" s="28"/>
+      <c r="E366" s="28"/>
+      <c r="F366" s="28"/>
+      <c r="G366" s="28"/>
+      <c r="H366" s="28"/>
+      <c r="I366" s="28"/>
+      <c r="J366" s="28"/>
+      <c r="K366" s="28"/>
+      <c r="L366" s="28"/>
+      <c r="M366" s="28"/>
+      <c r="N366" s="28"/>
+      <c r="O366" s="28"/>
+      <c r="P366" s="28"/>
+      <c r="Q366" s="28"/>
+      <c r="R366" s="28"/>
+      <c r="S366" s="28"/>
+      <c r="T366" s="28"/>
+      <c r="U366" s="28"/>
+      <c r="V366" s="5"/>
+    </row>
+    <row r="367" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B367" s="4"/>
+      <c r="C367" s="28"/>
+      <c r="D367" s="28"/>
+      <c r="E367" s="28"/>
+      <c r="F367" s="28"/>
+      <c r="G367" s="28"/>
+      <c r="H367" s="28"/>
+      <c r="I367" s="28"/>
+      <c r="J367" s="28"/>
+      <c r="K367" s="28"/>
+      <c r="L367" s="28"/>
+      <c r="M367" s="28"/>
+      <c r="N367" s="28"/>
+      <c r="O367" s="28"/>
+      <c r="P367" s="28"/>
+      <c r="Q367" s="28"/>
+      <c r="R367" s="28"/>
+      <c r="S367" s="28"/>
+      <c r="T367" s="28"/>
+      <c r="U367" s="28"/>
+      <c r="V367" s="5"/>
+    </row>
+    <row r="368" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B368" s="4"/>
+      <c r="C368" s="28"/>
+      <c r="D368" s="28"/>
+      <c r="E368" s="28"/>
+      <c r="F368" s="28"/>
+      <c r="G368" s="28"/>
+      <c r="H368" s="28"/>
+      <c r="I368" s="28"/>
+      <c r="J368" s="28"/>
+      <c r="K368" s="28"/>
+      <c r="L368" s="28"/>
+      <c r="M368" s="28"/>
+      <c r="N368" s="28"/>
+      <c r="O368" s="28"/>
+      <c r="P368" s="28"/>
+      <c r="Q368" s="28"/>
+      <c r="R368" s="28"/>
+      <c r="S368" s="28"/>
+      <c r="T368" s="28"/>
+      <c r="U368" s="28"/>
+      <c r="V368" s="5"/>
+    </row>
+    <row r="369" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B369" s="4"/>
+      <c r="C369" s="28"/>
+      <c r="D369" s="28"/>
+      <c r="E369" s="28"/>
+      <c r="F369" s="28"/>
+      <c r="G369" s="28"/>
+      <c r="H369" s="28"/>
+      <c r="I369" s="28"/>
+      <c r="J369" s="28"/>
+      <c r="K369" s="28"/>
+      <c r="L369" s="28"/>
+      <c r="M369" s="28"/>
+      <c r="N369" s="28"/>
+      <c r="O369" s="28"/>
+      <c r="P369" s="28"/>
+      <c r="Q369" s="28"/>
+      <c r="R369" s="28"/>
+      <c r="S369" s="28"/>
+      <c r="T369" s="28"/>
+      <c r="U369" s="28"/>
+      <c r="V369" s="5"/>
+    </row>
+    <row r="370" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B370" s="4"/>
+      <c r="C370" s="28"/>
+      <c r="D370" s="28"/>
+      <c r="E370" s="28"/>
+      <c r="F370" s="28"/>
+      <c r="G370" s="28"/>
+      <c r="H370" s="28"/>
+      <c r="I370" s="28"/>
+      <c r="J370" s="28"/>
+      <c r="K370" s="28"/>
+      <c r="L370" s="28"/>
+      <c r="M370" s="28"/>
+      <c r="N370" s="28"/>
+      <c r="O370" s="28"/>
+      <c r="P370" s="28"/>
+      <c r="Q370" s="28"/>
+      <c r="R370" s="28"/>
+      <c r="S370" s="28"/>
+      <c r="T370" s="28"/>
+      <c r="U370" s="28"/>
+      <c r="V370" s="5"/>
+    </row>
+    <row r="371" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B371" s="7"/>
+      <c r="C371" s="8"/>
+      <c r="D371" s="8"/>
+      <c r="E371" s="8"/>
+      <c r="F371" s="8"/>
+      <c r="G371" s="8"/>
+      <c r="H371" s="8"/>
+      <c r="I371" s="8"/>
+      <c r="J371" s="8"/>
+      <c r="K371" s="8"/>
+      <c r="L371" s="8"/>
+      <c r="M371" s="8"/>
+      <c r="N371" s="8"/>
+      <c r="O371" s="8"/>
+      <c r="P371" s="8"/>
+      <c r="Q371" s="8"/>
+      <c r="R371" s="8"/>
+      <c r="S371" s="8"/>
+      <c r="T371" s="8"/>
+      <c r="U371" s="8"/>
+      <c r="V371" s="9"/>
+    </row>
+    <row r="374" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B374" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
+      <c r="E374" s="2"/>
+      <c r="F374" s="2"/>
+      <c r="G374" s="2"/>
+      <c r="H374" s="2"/>
+      <c r="I374" s="2"/>
+      <c r="J374" s="2"/>
+      <c r="K374" s="2"/>
+      <c r="L374" s="2"/>
+      <c r="M374" s="2"/>
+      <c r="N374" s="2"/>
+      <c r="O374" s="2"/>
+      <c r="P374" s="2"/>
+      <c r="Q374" s="2"/>
+      <c r="R374" s="2"/>
+      <c r="S374" s="2"/>
+      <c r="T374" s="2"/>
+      <c r="U374" s="3"/>
+    </row>
+    <row r="375" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B375" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C375" s="28"/>
+      <c r="D375" s="28"/>
+      <c r="E375" s="28"/>
+      <c r="F375" s="28"/>
+      <c r="G375" s="28"/>
+      <c r="H375" s="28"/>
+      <c r="I375" s="28"/>
+      <c r="J375" s="28"/>
+      <c r="K375" s="28"/>
+      <c r="L375" s="28"/>
+      <c r="M375" s="28"/>
+      <c r="N375" s="28"/>
+      <c r="O375" s="28"/>
+      <c r="P375" s="28"/>
+      <c r="Q375" s="28"/>
+      <c r="R375" s="28"/>
+      <c r="S375" s="28"/>
+      <c r="T375" s="28"/>
+      <c r="U375" s="5"/>
+    </row>
+    <row r="376" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B376" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C376" s="28"/>
+      <c r="D376" s="28"/>
+      <c r="E376" s="28"/>
+      <c r="F376" s="28"/>
+      <c r="G376" s="28"/>
+      <c r="H376" s="28"/>
+      <c r="I376" s="28"/>
+      <c r="J376" s="28"/>
+      <c r="K376" s="28"/>
+      <c r="L376" s="28"/>
+      <c r="M376" s="28"/>
+      <c r="N376" s="28"/>
+      <c r="O376" s="28"/>
+      <c r="P376" s="28"/>
+      <c r="Q376" s="28"/>
+      <c r="R376" s="28"/>
+      <c r="S376" s="28"/>
+      <c r="T376" s="28"/>
+      <c r="U376" s="5"/>
+    </row>
+    <row r="377" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B377" s="4"/>
+      <c r="C377" s="28"/>
+      <c r="D377" s="28"/>
+      <c r="E377" s="28"/>
+      <c r="F377" s="28"/>
+      <c r="G377" s="28"/>
+      <c r="H377" s="28"/>
+      <c r="I377" s="28"/>
+      <c r="J377" s="28"/>
+      <c r="K377" s="28"/>
+      <c r="L377" s="28"/>
+      <c r="M377" s="28"/>
+      <c r="N377" s="28"/>
+      <c r="O377" s="28"/>
+      <c r="P377" s="28"/>
+      <c r="Q377" s="28"/>
+      <c r="R377" s="28"/>
+      <c r="S377" s="28"/>
+      <c r="T377" s="28"/>
+      <c r="U377" s="5"/>
+    </row>
+    <row r="378" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B378" s="4"/>
+      <c r="C378" s="28"/>
+      <c r="D378" s="28"/>
+      <c r="E378" s="28"/>
+      <c r="F378" s="28"/>
+      <c r="G378" s="28"/>
+      <c r="H378" s="28"/>
+      <c r="I378" s="28"/>
+      <c r="J378" s="28"/>
+      <c r="K378" s="28"/>
+      <c r="L378" s="28"/>
+      <c r="M378" s="28"/>
+      <c r="N378" s="28"/>
+      <c r="O378" s="28"/>
+      <c r="P378" s="28"/>
+      <c r="Q378" s="28"/>
+      <c r="R378" s="28"/>
+      <c r="S378" s="28"/>
+      <c r="T378" s="28"/>
+      <c r="U378" s="5"/>
+    </row>
+    <row r="379" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B379" s="4"/>
+      <c r="C379" s="28"/>
+      <c r="D379" s="28"/>
+      <c r="E379" s="28"/>
+      <c r="F379" s="28"/>
+      <c r="G379" s="28"/>
+      <c r="H379" s="28"/>
+      <c r="I379" s="28"/>
+      <c r="J379" s="28"/>
+      <c r="K379" s="28"/>
+      <c r="L379" s="28"/>
+      <c r="M379" s="28"/>
+      <c r="N379" s="28"/>
+      <c r="O379" s="28"/>
+      <c r="P379" s="28"/>
+      <c r="Q379" s="28"/>
+      <c r="R379" s="28"/>
+      <c r="S379" s="28"/>
+      <c r="T379" s="28"/>
+      <c r="U379" s="5"/>
+    </row>
+    <row r="380" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B380" s="4"/>
+      <c r="C380" s="28"/>
+      <c r="D380" s="28"/>
+      <c r="E380" s="28"/>
+      <c r="F380" s="28"/>
+      <c r="G380" s="28"/>
+      <c r="H380" s="28"/>
+      <c r="I380" s="28"/>
+      <c r="J380" s="28"/>
+      <c r="K380" s="28"/>
+      <c r="L380" s="28"/>
+      <c r="M380" s="28"/>
+      <c r="N380" s="28"/>
+      <c r="O380" s="28"/>
+      <c r="P380" s="28"/>
+      <c r="Q380" s="28"/>
+      <c r="R380" s="28"/>
+      <c r="S380" s="28"/>
+      <c r="T380" s="28"/>
+      <c r="U380" s="5"/>
+    </row>
+    <row r="381" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B381" s="4"/>
+      <c r="C381" s="28"/>
+      <c r="D381" s="28"/>
+      <c r="E381" s="28"/>
+      <c r="F381" s="28"/>
+      <c r="G381" s="28"/>
+      <c r="H381" s="28"/>
+      <c r="I381" s="28"/>
+      <c r="J381" s="28"/>
+      <c r="K381" s="28"/>
+      <c r="L381" s="28"/>
+      <c r="M381" s="28"/>
+      <c r="N381" s="28"/>
+      <c r="O381" s="28"/>
+      <c r="P381" s="28"/>
+      <c r="Q381" s="28"/>
+      <c r="R381" s="28"/>
+      <c r="S381" s="28"/>
+      <c r="T381" s="28"/>
+      <c r="U381" s="5"/>
+    </row>
+    <row r="382" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B382" s="4"/>
+      <c r="C382" s="28"/>
+      <c r="D382" s="28"/>
+      <c r="E382" s="28"/>
+      <c r="F382" s="28"/>
+      <c r="G382" s="28"/>
+      <c r="H382" s="28"/>
+      <c r="I382" s="28"/>
+      <c r="J382" s="28"/>
+      <c r="K382" s="28"/>
+      <c r="L382" s="28"/>
+      <c r="M382" s="28"/>
+      <c r="N382" s="28"/>
+      <c r="O382" s="28"/>
+      <c r="P382" s="28"/>
+      <c r="Q382" s="28"/>
+      <c r="R382" s="28"/>
+      <c r="S382" s="28"/>
+      <c r="T382" s="28"/>
+      <c r="U382" s="5"/>
+    </row>
+    <row r="383" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B383" s="4"/>
+      <c r="C383" s="28"/>
+      <c r="D383" s="28"/>
+      <c r="E383" s="28"/>
+      <c r="F383" s="28"/>
+      <c r="G383" s="28"/>
+      <c r="H383" s="28"/>
+      <c r="I383" s="28"/>
+      <c r="J383" s="28"/>
+      <c r="K383" s="28"/>
+      <c r="L383" s="28"/>
+      <c r="M383" s="28"/>
+      <c r="N383" s="28"/>
+      <c r="O383" s="28"/>
+      <c r="P383" s="28"/>
+      <c r="Q383" s="28"/>
+      <c r="R383" s="28"/>
+      <c r="S383" s="28"/>
+      <c r="T383" s="28"/>
+      <c r="U383" s="5"/>
+    </row>
+    <row r="384" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B384" s="4"/>
+      <c r="C384" s="28"/>
+      <c r="D384" s="28"/>
+      <c r="E384" s="28"/>
+      <c r="F384" s="28"/>
+      <c r="G384" s="28"/>
+      <c r="H384" s="28"/>
+      <c r="I384" s="28"/>
+      <c r="J384" s="28"/>
+      <c r="K384" s="28"/>
+      <c r="L384" s="28"/>
+      <c r="M384" s="28"/>
+      <c r="N384" s="28"/>
+      <c r="O384" s="28"/>
+      <c r="P384" s="28"/>
+      <c r="Q384" s="28"/>
+      <c r="R384" s="28"/>
+      <c r="S384" s="28"/>
+      <c r="T384" s="28"/>
+      <c r="U384" s="5"/>
+    </row>
+    <row r="385" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B385" s="4"/>
+      <c r="C385" s="28"/>
+      <c r="D385" s="28"/>
+      <c r="E385" s="28"/>
+      <c r="F385" s="28"/>
+      <c r="G385" s="28"/>
+      <c r="H385" s="28"/>
+      <c r="I385" s="28"/>
+      <c r="J385" s="28"/>
+      <c r="K385" s="28"/>
+      <c r="L385" s="28"/>
+      <c r="M385" s="28"/>
+      <c r="N385" s="28"/>
+      <c r="O385" s="28"/>
+      <c r="P385" s="28"/>
+      <c r="Q385" s="28"/>
+      <c r="R385" s="28"/>
+      <c r="S385" s="28"/>
+      <c r="T385" s="28"/>
+      <c r="U385" s="5"/>
+    </row>
+    <row r="386" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B386" s="4"/>
+      <c r="C386" s="28"/>
+      <c r="D386" s="28"/>
+      <c r="E386" s="28"/>
+      <c r="F386" s="28"/>
+      <c r="G386" s="28"/>
+      <c r="H386" s="28"/>
+      <c r="I386" s="28"/>
+      <c r="J386" s="28"/>
+      <c r="K386" s="28"/>
+      <c r="L386" s="28"/>
+      <c r="M386" s="28"/>
+      <c r="N386" s="28"/>
+      <c r="O386" s="28"/>
+      <c r="P386" s="28"/>
+      <c r="Q386" s="28"/>
+      <c r="R386" s="28"/>
+      <c r="S386" s="28"/>
+      <c r="T386" s="28"/>
+      <c r="U386" s="5"/>
+    </row>
+    <row r="387" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B387" s="4"/>
+      <c r="C387" s="28"/>
+      <c r="D387" s="28"/>
+      <c r="E387" s="28"/>
+      <c r="F387" s="28"/>
+      <c r="G387" s="28"/>
+      <c r="H387" s="28"/>
+      <c r="I387" s="28"/>
+      <c r="J387" s="28"/>
+      <c r="K387" s="28"/>
+      <c r="L387" s="28"/>
+      <c r="M387" s="28"/>
+      <c r="N387" s="28"/>
+      <c r="O387" s="28"/>
+      <c r="P387" s="28"/>
+      <c r="Q387" s="28"/>
+      <c r="R387" s="28"/>
+      <c r="S387" s="28"/>
+      <c r="T387" s="28"/>
+      <c r="U387" s="5"/>
+    </row>
+    <row r="388" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B388" s="4"/>
+      <c r="C388" s="28"/>
+      <c r="D388" s="28"/>
+      <c r="E388" s="28"/>
+      <c r="F388" s="28"/>
+      <c r="G388" s="28"/>
+      <c r="H388" s="28"/>
+      <c r="I388" s="28"/>
+      <c r="J388" s="28"/>
+      <c r="K388" s="28"/>
+      <c r="L388" s="28"/>
+      <c r="M388" s="28"/>
+      <c r="N388" s="28"/>
+      <c r="O388" s="28"/>
+      <c r="P388" s="28"/>
+      <c r="Q388" s="28"/>
+      <c r="R388" s="28"/>
+      <c r="S388" s="28"/>
+      <c r="T388" s="28"/>
+      <c r="U388" s="5"/>
+    </row>
+    <row r="389" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B389" s="4"/>
+      <c r="C389" s="28"/>
+      <c r="D389" s="28"/>
+      <c r="E389" s="28"/>
+      <c r="F389" s="28"/>
+      <c r="G389" s="28"/>
+      <c r="H389" s="28"/>
+      <c r="I389" s="28"/>
+      <c r="J389" s="28"/>
+      <c r="K389" s="28"/>
+      <c r="L389" s="28"/>
+      <c r="M389" s="28"/>
+      <c r="N389" s="28"/>
+      <c r="O389" s="28"/>
+      <c r="P389" s="28"/>
+      <c r="Q389" s="28"/>
+      <c r="R389" s="28"/>
+      <c r="S389" s="28"/>
+      <c r="T389" s="28"/>
+      <c r="U389" s="5"/>
+    </row>
+    <row r="390" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B390" s="4"/>
+      <c r="C390" s="28"/>
+      <c r="D390" s="28"/>
+      <c r="E390" s="28"/>
+      <c r="F390" s="28"/>
+      <c r="G390" s="28"/>
+      <c r="H390" s="28"/>
+      <c r="I390" s="28"/>
+      <c r="J390" s="28"/>
+      <c r="K390" s="28"/>
+      <c r="L390" s="28"/>
+      <c r="M390" s="28"/>
+      <c r="N390" s="28"/>
+      <c r="O390" s="28"/>
+      <c r="P390" s="28"/>
+      <c r="Q390" s="28"/>
+      <c r="R390" s="28"/>
+      <c r="S390" s="28"/>
+      <c r="T390" s="28"/>
+      <c r="U390" s="5"/>
+    </row>
+    <row r="391" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B391" s="4"/>
+      <c r="C391" s="28"/>
+      <c r="D391" s="28"/>
+      <c r="E391" s="28"/>
+      <c r="F391" s="28"/>
+      <c r="G391" s="28"/>
+      <c r="H391" s="28"/>
+      <c r="I391" s="28"/>
+      <c r="J391" s="28"/>
+      <c r="K391" s="28"/>
+      <c r="L391" s="28"/>
+      <c r="M391" s="28"/>
+      <c r="N391" s="28"/>
+      <c r="O391" s="28"/>
+      <c r="P391" s="28"/>
+      <c r="Q391" s="28"/>
+      <c r="R391" s="28"/>
+      <c r="S391" s="28"/>
+      <c r="T391" s="28"/>
+      <c r="U391" s="5"/>
+    </row>
+    <row r="392" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B392" s="4"/>
+      <c r="C392" s="28"/>
+      <c r="D392" s="28"/>
+      <c r="E392" s="28"/>
+      <c r="F392" s="28"/>
+      <c r="G392" s="28"/>
+      <c r="H392" s="28"/>
+      <c r="I392" s="28"/>
+      <c r="J392" s="28"/>
+      <c r="K392" s="28"/>
+      <c r="L392" s="28"/>
+      <c r="M392" s="28"/>
+      <c r="N392" s="28"/>
+      <c r="O392" s="28"/>
+      <c r="P392" s="28"/>
+      <c r="Q392" s="28"/>
+      <c r="R392" s="28"/>
+      <c r="S392" s="28"/>
+      <c r="T392" s="28"/>
+      <c r="U392" s="5"/>
+    </row>
+    <row r="393" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B393" s="4"/>
+      <c r="C393" s="28"/>
+      <c r="D393" s="28"/>
+      <c r="E393" s="28"/>
+      <c r="F393" s="28"/>
+      <c r="G393" s="28"/>
+      <c r="H393" s="28"/>
+      <c r="I393" s="28"/>
+      <c r="J393" s="28"/>
+      <c r="K393" s="28"/>
+      <c r="L393" s="28"/>
+      <c r="M393" s="28"/>
+      <c r="N393" s="28"/>
+      <c r="O393" s="28"/>
+      <c r="P393" s="28"/>
+      <c r="Q393" s="28"/>
+      <c r="R393" s="28"/>
+      <c r="S393" s="28"/>
+      <c r="T393" s="28"/>
+      <c r="U393" s="5"/>
+    </row>
+    <row r="394" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B394" s="4"/>
+      <c r="C394" s="28"/>
+      <c r="D394" s="28"/>
+      <c r="E394" s="28"/>
+      <c r="F394" s="28"/>
+      <c r="G394" s="28"/>
+      <c r="H394" s="28"/>
+      <c r="I394" s="28"/>
+      <c r="J394" s="28"/>
+      <c r="K394" s="28"/>
+      <c r="L394" s="28"/>
+      <c r="M394" s="28"/>
+      <c r="N394" s="28"/>
+      <c r="O394" s="28"/>
+      <c r="P394" s="28"/>
+      <c r="Q394" s="28"/>
+      <c r="R394" s="28"/>
+      <c r="S394" s="28"/>
+      <c r="T394" s="28"/>
+      <c r="U394" s="5"/>
+    </row>
+    <row r="395" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B395" s="4"/>
+      <c r="C395" s="28"/>
+      <c r="D395" s="28"/>
+      <c r="E395" s="28"/>
+      <c r="F395" s="28"/>
+      <c r="G395" s="28"/>
+      <c r="H395" s="28"/>
+      <c r="I395" s="28"/>
+      <c r="J395" s="28"/>
+      <c r="K395" s="28"/>
+      <c r="L395" s="28"/>
+      <c r="M395" s="28"/>
+      <c r="N395" s="28"/>
+      <c r="O395" s="28"/>
+      <c r="P395" s="28"/>
+      <c r="Q395" s="28"/>
+      <c r="R395" s="28"/>
+      <c r="S395" s="28"/>
+      <c r="T395" s="28"/>
+      <c r="U395" s="5"/>
+    </row>
+    <row r="396" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B396" s="4"/>
+      <c r="C396" s="28"/>
+      <c r="D396" s="28"/>
+      <c r="E396" s="28"/>
+      <c r="F396" s="28"/>
+      <c r="G396" s="28"/>
+      <c r="H396" s="28"/>
+      <c r="I396" s="28"/>
+      <c r="J396" s="28"/>
+      <c r="K396" s="28"/>
+      <c r="L396" s="28"/>
+      <c r="M396" s="28"/>
+      <c r="N396" s="28"/>
+      <c r="O396" s="28"/>
+      <c r="P396" s="28"/>
+      <c r="Q396" s="28"/>
+      <c r="R396" s="28"/>
+      <c r="S396" s="28"/>
+      <c r="T396" s="28"/>
+      <c r="U396" s="5"/>
+    </row>
+    <row r="397" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B397" s="4"/>
+      <c r="C397" s="28"/>
+      <c r="D397" s="28"/>
+      <c r="E397" s="28"/>
+      <c r="F397" s="28"/>
+      <c r="G397" s="28"/>
+      <c r="H397" s="28"/>
+      <c r="I397" s="28"/>
+      <c r="J397" s="28"/>
+      <c r="K397" s="28"/>
+      <c r="L397" s="28"/>
+      <c r="M397" s="28"/>
+      <c r="N397" s="28"/>
+      <c r="O397" s="28"/>
+      <c r="P397" s="28"/>
+      <c r="Q397" s="28"/>
+      <c r="R397" s="28"/>
+      <c r="S397" s="28"/>
+      <c r="T397" s="28"/>
+      <c r="U397" s="5"/>
+    </row>
+    <row r="398" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B398" s="4"/>
+      <c r="C398" s="28"/>
+      <c r="D398" s="28"/>
+      <c r="E398" s="28"/>
+      <c r="F398" s="28"/>
+      <c r="G398" s="28"/>
+      <c r="H398" s="28"/>
+      <c r="I398" s="28"/>
+      <c r="J398" s="28"/>
+      <c r="K398" s="28"/>
+      <c r="L398" s="28"/>
+      <c r="M398" s="28"/>
+      <c r="N398" s="28"/>
+      <c r="O398" s="28"/>
+      <c r="P398" s="28"/>
+      <c r="Q398" s="28"/>
+      <c r="R398" s="28"/>
+      <c r="S398" s="28"/>
+      <c r="T398" s="28"/>
+      <c r="U398" s="5"/>
+    </row>
+    <row r="399" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B399" s="4"/>
+      <c r="C399" s="28"/>
+      <c r="D399" s="28"/>
+      <c r="E399" s="28"/>
+      <c r="F399" s="28"/>
+      <c r="G399" s="28"/>
+      <c r="H399" s="28"/>
+      <c r="I399" s="28"/>
+      <c r="J399" s="28"/>
+      <c r="K399" s="28"/>
+      <c r="L399" s="28"/>
+      <c r="M399" s="28"/>
+      <c r="N399" s="28"/>
+      <c r="O399" s="28"/>
+      <c r="P399" s="28"/>
+      <c r="Q399" s="28"/>
+      <c r="R399" s="28"/>
+      <c r="S399" s="28"/>
+      <c r="T399" s="28"/>
+      <c r="U399" s="5"/>
+    </row>
+    <row r="400" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B400" s="4"/>
+      <c r="C400" s="28"/>
+      <c r="D400" s="28"/>
+      <c r="E400" s="28"/>
+      <c r="F400" s="28"/>
+      <c r="G400" s="28"/>
+      <c r="H400" s="28"/>
+      <c r="I400" s="28"/>
+      <c r="J400" s="28"/>
+      <c r="K400" s="28"/>
+      <c r="L400" s="28"/>
+      <c r="M400" s="28"/>
+      <c r="N400" s="28"/>
+      <c r="O400" s="28"/>
+      <c r="P400" s="28"/>
+      <c r="Q400" s="28"/>
+      <c r="R400" s="28"/>
+      <c r="S400" s="28"/>
+      <c r="T400" s="28"/>
+      <c r="U400" s="5"/>
+    </row>
+    <row r="401" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B401" s="4"/>
+      <c r="C401" s="28"/>
+      <c r="D401" s="28"/>
+      <c r="E401" s="28"/>
+      <c r="F401" s="28"/>
+      <c r="G401" s="28"/>
+      <c r="H401" s="28"/>
+      <c r="I401" s="28"/>
+      <c r="J401" s="28"/>
+      <c r="K401" s="28"/>
+      <c r="L401" s="28"/>
+      <c r="M401" s="28"/>
+      <c r="N401" s="28"/>
+      <c r="O401" s="28"/>
+      <c r="P401" s="28"/>
+      <c r="Q401" s="28"/>
+      <c r="R401" s="28"/>
+      <c r="S401" s="28"/>
+      <c r="T401" s="28"/>
+      <c r="U401" s="5"/>
+    </row>
+    <row r="402" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B402" s="4"/>
+      <c r="C402" s="28"/>
+      <c r="D402" s="28"/>
+      <c r="E402" s="28"/>
+      <c r="F402" s="28"/>
+      <c r="G402" s="28"/>
+      <c r="H402" s="28"/>
+      <c r="I402" s="28"/>
+      <c r="J402" s="28"/>
+      <c r="K402" s="28"/>
+      <c r="L402" s="28"/>
+      <c r="M402" s="28"/>
+      <c r="N402" s="28"/>
+      <c r="O402" s="28"/>
+      <c r="P402" s="28"/>
+      <c r="Q402" s="28"/>
+      <c r="R402" s="28"/>
+      <c r="S402" s="28"/>
+      <c r="T402" s="28"/>
+      <c r="U402" s="5"/>
+    </row>
+    <row r="403" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B403" s="4"/>
+      <c r="C403" s="28"/>
+      <c r="D403" s="28"/>
+      <c r="E403" s="28"/>
+      <c r="F403" s="28"/>
+      <c r="G403" s="28"/>
+      <c r="H403" s="28"/>
+      <c r="I403" s="28"/>
+      <c r="J403" s="28"/>
+      <c r="K403" s="28"/>
+      <c r="L403" s="28"/>
+      <c r="M403" s="28"/>
+      <c r="N403" s="28"/>
+      <c r="O403" s="28"/>
+      <c r="P403" s="28"/>
+      <c r="Q403" s="28"/>
+      <c r="R403" s="28"/>
+      <c r="S403" s="28"/>
+      <c r="T403" s="28"/>
+      <c r="U403" s="5"/>
+    </row>
+    <row r="404" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B404" s="4"/>
+      <c r="C404" s="28"/>
+      <c r="D404" s="28"/>
+      <c r="E404" s="28"/>
+      <c r="F404" s="28"/>
+      <c r="G404" s="28"/>
+      <c r="H404" s="28"/>
+      <c r="I404" s="28"/>
+      <c r="J404" s="28"/>
+      <c r="K404" s="28"/>
+      <c r="L404" s="28"/>
+      <c r="M404" s="28"/>
+      <c r="N404" s="28"/>
+      <c r="O404" s="28"/>
+      <c r="P404" s="28"/>
+      <c r="Q404" s="28"/>
+      <c r="R404" s="28"/>
+      <c r="S404" s="28"/>
+      <c r="T404" s="28"/>
+      <c r="U404" s="5"/>
+    </row>
+    <row r="405" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B405" s="4"/>
+      <c r="C405" s="28"/>
+      <c r="D405" s="28"/>
+      <c r="E405" s="28"/>
+      <c r="F405" s="28"/>
+      <c r="G405" s="28"/>
+      <c r="H405" s="28"/>
+      <c r="I405" s="28"/>
+      <c r="J405" s="28"/>
+      <c r="K405" s="28"/>
+      <c r="L405" s="28"/>
+      <c r="M405" s="28"/>
+      <c r="N405" s="28"/>
+      <c r="O405" s="28"/>
+      <c r="P405" s="28"/>
+      <c r="Q405" s="28"/>
+      <c r="R405" s="28"/>
+      <c r="S405" s="28"/>
+      <c r="T405" s="28"/>
+      <c r="U405" s="5"/>
+    </row>
+    <row r="406" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B406" s="4"/>
+      <c r="C406" s="28"/>
+      <c r="D406" s="28"/>
+      <c r="E406" s="28"/>
+      <c r="F406" s="28"/>
+      <c r="G406" s="28"/>
+      <c r="H406" s="28"/>
+      <c r="I406" s="28"/>
+      <c r="J406" s="28"/>
+      <c r="K406" s="28"/>
+      <c r="L406" s="28"/>
+      <c r="M406" s="28"/>
+      <c r="N406" s="28"/>
+      <c r="O406" s="28"/>
+      <c r="P406" s="28"/>
+      <c r="Q406" s="28"/>
+      <c r="R406" s="28"/>
+      <c r="S406" s="28"/>
+      <c r="T406" s="28"/>
+      <c r="U406" s="5"/>
+    </row>
+    <row r="407" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B407" s="4"/>
+      <c r="C407" s="28"/>
+      <c r="D407" s="28"/>
+      <c r="E407" s="28"/>
+      <c r="F407" s="28"/>
+      <c r="G407" s="28"/>
+      <c r="H407" s="28"/>
+      <c r="I407" s="28"/>
+      <c r="J407" s="28"/>
+      <c r="K407" s="28"/>
+      <c r="L407" s="28"/>
+      <c r="M407" s="28"/>
+      <c r="N407" s="28"/>
+      <c r="O407" s="28"/>
+      <c r="P407" s="28"/>
+      <c r="Q407" s="28"/>
+      <c r="R407" s="28"/>
+      <c r="S407" s="28"/>
+      <c r="T407" s="28"/>
+      <c r="U407" s="5"/>
+    </row>
+    <row r="408" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B408" s="4"/>
+      <c r="C408" s="28"/>
+      <c r="D408" s="28"/>
+      <c r="E408" s="28"/>
+      <c r="F408" s="28"/>
+      <c r="G408" s="28"/>
+      <c r="H408" s="28"/>
+      <c r="I408" s="28"/>
+      <c r="J408" s="28"/>
+      <c r="K408" s="28"/>
+      <c r="L408" s="28"/>
+      <c r="M408" s="28"/>
+      <c r="N408" s="28"/>
+      <c r="O408" s="28"/>
+      <c r="P408" s="28"/>
+      <c r="Q408" s="28"/>
+      <c r="R408" s="28"/>
+      <c r="S408" s="28"/>
+      <c r="T408" s="28"/>
+      <c r="U408" s="5"/>
+    </row>
+    <row r="409" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B409" s="4"/>
+      <c r="C409" s="28"/>
+      <c r="D409" s="28"/>
+      <c r="E409" s="28"/>
+      <c r="F409" s="28"/>
+      <c r="G409" s="28"/>
+      <c r="H409" s="28"/>
+      <c r="I409" s="28"/>
+      <c r="J409" s="28"/>
+      <c r="K409" s="28"/>
+      <c r="L409" s="28"/>
+      <c r="M409" s="28"/>
+      <c r="N409" s="28"/>
+      <c r="O409" s="28"/>
+      <c r="P409" s="28"/>
+      <c r="Q409" s="28"/>
+      <c r="R409" s="28"/>
+      <c r="S409" s="28"/>
+      <c r="T409" s="28"/>
+      <c r="U409" s="5"/>
+    </row>
+    <row r="410" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B410" s="4"/>
+      <c r="C410" s="28"/>
+      <c r="D410" s="28"/>
+      <c r="E410" s="28"/>
+      <c r="F410" s="28"/>
+      <c r="G410" s="28"/>
+      <c r="H410" s="28"/>
+      <c r="I410" s="28"/>
+      <c r="J410" s="28"/>
+      <c r="K410" s="28"/>
+      <c r="L410" s="28"/>
+      <c r="M410" s="28"/>
+      <c r="N410" s="28"/>
+      <c r="O410" s="28"/>
+      <c r="P410" s="28"/>
+      <c r="Q410" s="28"/>
+      <c r="R410" s="28"/>
+      <c r="S410" s="28"/>
+      <c r="T410" s="28"/>
+      <c r="U410" s="5"/>
+    </row>
+    <row r="411" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B411" s="4"/>
+      <c r="C411" s="28"/>
+      <c r="D411" s="28"/>
+      <c r="E411" s="28"/>
+      <c r="F411" s="28"/>
+      <c r="G411" s="28"/>
+      <c r="H411" s="28"/>
+      <c r="I411" s="28"/>
+      <c r="J411" s="28"/>
+      <c r="K411" s="28"/>
+      <c r="L411" s="28"/>
+      <c r="M411" s="28"/>
+      <c r="N411" s="28"/>
+      <c r="O411" s="28"/>
+      <c r="P411" s="28"/>
+      <c r="Q411" s="28"/>
+      <c r="R411" s="28"/>
+      <c r="S411" s="28"/>
+      <c r="T411" s="28"/>
+      <c r="U411" s="5"/>
+    </row>
+    <row r="412" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B412" s="4"/>
+      <c r="C412" s="28"/>
+      <c r="D412" s="28"/>
+      <c r="E412" s="28"/>
+      <c r="F412" s="28"/>
+      <c r="G412" s="28"/>
+      <c r="H412" s="28"/>
+      <c r="I412" s="28"/>
+      <c r="J412" s="28"/>
+      <c r="K412" s="28"/>
+      <c r="L412" s="28"/>
+      <c r="M412" s="28"/>
+      <c r="N412" s="28"/>
+      <c r="O412" s="28"/>
+      <c r="P412" s="28"/>
+      <c r="Q412" s="28"/>
+      <c r="R412" s="28"/>
+      <c r="S412" s="28"/>
+      <c r="T412" s="28"/>
+      <c r="U412" s="5"/>
+    </row>
+    <row r="413" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B413" s="4"/>
+      <c r="C413" s="28"/>
+      <c r="D413" s="28"/>
+      <c r="E413" s="28"/>
+      <c r="F413" s="28"/>
+      <c r="G413" s="28"/>
+      <c r="H413" s="28"/>
+      <c r="I413" s="28"/>
+      <c r="J413" s="28"/>
+      <c r="K413" s="28"/>
+      <c r="L413" s="28"/>
+      <c r="M413" s="28"/>
+      <c r="N413" s="28"/>
+      <c r="O413" s="28"/>
+      <c r="P413" s="28"/>
+      <c r="Q413" s="28"/>
+      <c r="R413" s="28"/>
+      <c r="S413" s="28"/>
+      <c r="T413" s="28"/>
+      <c r="U413" s="5"/>
+    </row>
+    <row r="414" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B414" s="4"/>
+      <c r="C414" s="28"/>
+      <c r="D414" s="28"/>
+      <c r="E414" s="28"/>
+      <c r="F414" s="28"/>
+      <c r="G414" s="28"/>
+      <c r="H414" s="28"/>
+      <c r="I414" s="28"/>
+      <c r="J414" s="28"/>
+      <c r="K414" s="28"/>
+      <c r="L414" s="28"/>
+      <c r="M414" s="28"/>
+      <c r="N414" s="28"/>
+      <c r="O414" s="28"/>
+      <c r="P414" s="28"/>
+      <c r="Q414" s="28"/>
+      <c r="R414" s="28"/>
+      <c r="S414" s="28"/>
+      <c r="T414" s="28"/>
+      <c r="U414" s="5"/>
+    </row>
+    <row r="415" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B415" s="4"/>
+      <c r="C415" s="28"/>
+      <c r="D415" s="28"/>
+      <c r="E415" s="28"/>
+      <c r="F415" s="28"/>
+      <c r="G415" s="28"/>
+      <c r="H415" s="28"/>
+      <c r="I415" s="28"/>
+      <c r="J415" s="28"/>
+      <c r="K415" s="28"/>
+      <c r="L415" s="28"/>
+      <c r="M415" s="28"/>
+      <c r="N415" s="28"/>
+      <c r="O415" s="28"/>
+      <c r="P415" s="28"/>
+      <c r="Q415" s="28"/>
+      <c r="R415" s="28"/>
+      <c r="S415" s="28"/>
+      <c r="T415" s="28"/>
+      <c r="U415" s="5"/>
+    </row>
+    <row r="416" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B416" s="4"/>
+      <c r="C416" s="28"/>
+      <c r="D416" s="28"/>
+      <c r="E416" s="28"/>
+      <c r="F416" s="28"/>
+      <c r="G416" s="28"/>
+      <c r="H416" s="28"/>
+      <c r="I416" s="28"/>
+      <c r="J416" s="28"/>
+      <c r="K416" s="28"/>
+      <c r="L416" s="28"/>
+      <c r="M416" s="28"/>
+      <c r="N416" s="28"/>
+      <c r="O416" s="28"/>
+      <c r="P416" s="28"/>
+      <c r="Q416" s="28"/>
+      <c r="R416" s="28"/>
+      <c r="S416" s="28"/>
+      <c r="T416" s="28"/>
+      <c r="U416" s="5"/>
+    </row>
+    <row r="417" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B417" s="4"/>
+      <c r="C417" s="28"/>
+      <c r="D417" s="28"/>
+      <c r="E417" s="28"/>
+      <c r="F417" s="28"/>
+      <c r="G417" s="28"/>
+      <c r="H417" s="28"/>
+      <c r="I417" s="28"/>
+      <c r="J417" s="28"/>
+      <c r="K417" s="28"/>
+      <c r="L417" s="28"/>
+      <c r="M417" s="28"/>
+      <c r="N417" s="28"/>
+      <c r="O417" s="28"/>
+      <c r="P417" s="28"/>
+      <c r="Q417" s="28"/>
+      <c r="R417" s="28"/>
+      <c r="S417" s="28"/>
+      <c r="T417" s="28"/>
+      <c r="U417" s="5"/>
+    </row>
+    <row r="418" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B418" s="4"/>
+      <c r="C418" s="28"/>
+      <c r="D418" s="28"/>
+      <c r="E418" s="28"/>
+      <c r="F418" s="28"/>
+      <c r="G418" s="28"/>
+      <c r="H418" s="28"/>
+      <c r="I418" s="28"/>
+      <c r="J418" s="28"/>
+      <c r="K418" s="28"/>
+      <c r="L418" s="28"/>
+      <c r="M418" s="28"/>
+      <c r="N418" s="28"/>
+      <c r="O418" s="28"/>
+      <c r="P418" s="28"/>
+      <c r="Q418" s="28"/>
+      <c r="R418" s="28"/>
+      <c r="S418" s="28"/>
+      <c r="T418" s="28"/>
+      <c r="U418" s="5"/>
+    </row>
+    <row r="419" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B419" s="4"/>
+      <c r="C419" s="28"/>
+      <c r="D419" s="28"/>
+      <c r="E419" s="28"/>
+      <c r="F419" s="28"/>
+      <c r="G419" s="28"/>
+      <c r="H419" s="28"/>
+      <c r="I419" s="28"/>
+      <c r="J419" s="28"/>
+      <c r="K419" s="28"/>
+      <c r="L419" s="28"/>
+      <c r="M419" s="28"/>
+      <c r="N419" s="28"/>
+      <c r="O419" s="28"/>
+      <c r="P419" s="28"/>
+      <c r="Q419" s="28"/>
+      <c r="R419" s="28"/>
+      <c r="S419" s="28"/>
+      <c r="T419" s="28"/>
+      <c r="U419" s="5"/>
+    </row>
+    <row r="420" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B420" s="4"/>
+      <c r="C420" s="28"/>
+      <c r="D420" s="28"/>
+      <c r="E420" s="28"/>
+      <c r="F420" s="28"/>
+      <c r="G420" s="28"/>
+      <c r="H420" s="28"/>
+      <c r="I420" s="28"/>
+      <c r="J420" s="28"/>
+      <c r="K420" s="28"/>
+      <c r="L420" s="28"/>
+      <c r="M420" s="28"/>
+      <c r="N420" s="28"/>
+      <c r="O420" s="28"/>
+      <c r="P420" s="28"/>
+      <c r="Q420" s="28"/>
+      <c r="R420" s="28"/>
+      <c r="S420" s="28"/>
+      <c r="T420" s="28"/>
+      <c r="U420" s="5"/>
+    </row>
+    <row r="421" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B421" s="4"/>
+      <c r="C421" s="28"/>
+      <c r="D421" s="28"/>
+      <c r="E421" s="28"/>
+      <c r="F421" s="28"/>
+      <c r="G421" s="28"/>
+      <c r="H421" s="28"/>
+      <c r="I421" s="28"/>
+      <c r="J421" s="28"/>
+      <c r="K421" s="28"/>
+      <c r="L421" s="28"/>
+      <c r="M421" s="28"/>
+      <c r="N421" s="28"/>
+      <c r="O421" s="28"/>
+      <c r="P421" s="28"/>
+      <c r="Q421" s="28"/>
+      <c r="R421" s="28"/>
+      <c r="S421" s="28"/>
+      <c r="T421" s="28"/>
+      <c r="U421" s="5"/>
+    </row>
+    <row r="422" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B422" s="4"/>
+      <c r="C422" s="28"/>
+      <c r="D422" s="28"/>
+      <c r="E422" s="28"/>
+      <c r="F422" s="28"/>
+      <c r="G422" s="28"/>
+      <c r="H422" s="28"/>
+      <c r="I422" s="28"/>
+      <c r="J422" s="28"/>
+      <c r="K422" s="28"/>
+      <c r="L422" s="28"/>
+      <c r="M422" s="28"/>
+      <c r="N422" s="28"/>
+      <c r="O422" s="28"/>
+      <c r="P422" s="28"/>
+      <c r="Q422" s="28"/>
+      <c r="R422" s="28"/>
+      <c r="S422" s="28"/>
+      <c r="T422" s="28"/>
+      <c r="U422" s="5"/>
+    </row>
+    <row r="423" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B423" s="4"/>
+      <c r="C423" s="28"/>
+      <c r="D423" s="28"/>
+      <c r="E423" s="28"/>
+      <c r="F423" s="28"/>
+      <c r="G423" s="28"/>
+      <c r="H423" s="28"/>
+      <c r="I423" s="28"/>
+      <c r="J423" s="28"/>
+      <c r="K423" s="28"/>
+      <c r="L423" s="28"/>
+      <c r="M423" s="28"/>
+      <c r="N423" s="28"/>
+      <c r="O423" s="28"/>
+      <c r="P423" s="28"/>
+      <c r="Q423" s="28"/>
+      <c r="R423" s="28"/>
+      <c r="S423" s="28"/>
+      <c r="T423" s="28"/>
+      <c r="U423" s="5"/>
+    </row>
+    <row r="424" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B424" s="4"/>
+      <c r="C424" s="28"/>
+      <c r="D424" s="28"/>
+      <c r="E424" s="28"/>
+      <c r="F424" s="28"/>
+      <c r="G424" s="28"/>
+      <c r="H424" s="28"/>
+      <c r="I424" s="28"/>
+      <c r="J424" s="28"/>
+      <c r="K424" s="28"/>
+      <c r="L424" s="28"/>
+      <c r="M424" s="28"/>
+      <c r="N424" s="28"/>
+      <c r="O424" s="28"/>
+      <c r="P424" s="28"/>
+      <c r="Q424" s="28"/>
+      <c r="R424" s="28"/>
+      <c r="S424" s="28"/>
+      <c r="T424" s="28"/>
+      <c r="U424" s="5"/>
+    </row>
+    <row r="425" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B425" s="4"/>
+      <c r="C425" s="28"/>
+      <c r="D425" s="28"/>
+      <c r="E425" s="28"/>
+      <c r="F425" s="28"/>
+      <c r="G425" s="28"/>
+      <c r="H425" s="28"/>
+      <c r="I425" s="28"/>
+      <c r="J425" s="28"/>
+      <c r="K425" s="28"/>
+      <c r="L425" s="28"/>
+      <c r="M425" s="28"/>
+      <c r="N425" s="28"/>
+      <c r="O425" s="28"/>
+      <c r="P425" s="28"/>
+      <c r="Q425" s="28"/>
+      <c r="R425" s="28"/>
+      <c r="S425" s="28"/>
+      <c r="T425" s="28"/>
+      <c r="U425" s="5"/>
+    </row>
+    <row r="426" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B426" s="4"/>
+      <c r="C426" s="28"/>
+      <c r="D426" s="28"/>
+      <c r="E426" s="28"/>
+      <c r="F426" s="28"/>
+      <c r="G426" s="28"/>
+      <c r="H426" s="28"/>
+      <c r="I426" s="28"/>
+      <c r="J426" s="28"/>
+      <c r="K426" s="28"/>
+      <c r="L426" s="28"/>
+      <c r="M426" s="28"/>
+      <c r="N426" s="28"/>
+      <c r="O426" s="28"/>
+      <c r="P426" s="28"/>
+      <c r="Q426" s="28"/>
+      <c r="R426" s="28"/>
+      <c r="S426" s="28"/>
+      <c r="T426" s="28"/>
+      <c r="U426" s="5"/>
+    </row>
+    <row r="427" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B427" s="4"/>
+      <c r="C427" s="28"/>
+      <c r="D427" s="28"/>
+      <c r="E427" s="28"/>
+      <c r="F427" s="28"/>
+      <c r="G427" s="28"/>
+      <c r="H427" s="28"/>
+      <c r="I427" s="28"/>
+      <c r="J427" s="28"/>
+      <c r="K427" s="28"/>
+      <c r="L427" s="28"/>
+      <c r="M427" s="28"/>
+      <c r="N427" s="28"/>
+      <c r="O427" s="28"/>
+      <c r="P427" s="28"/>
+      <c r="Q427" s="28"/>
+      <c r="R427" s="28"/>
+      <c r="S427" s="28"/>
+      <c r="T427" s="28"/>
+      <c r="U427" s="5"/>
+    </row>
+    <row r="428" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B428" s="4"/>
+      <c r="C428" s="28"/>
+      <c r="D428" s="28"/>
+      <c r="E428" s="28"/>
+      <c r="F428" s="28"/>
+      <c r="G428" s="28"/>
+      <c r="H428" s="28"/>
+      <c r="I428" s="28"/>
+      <c r="J428" s="28"/>
+      <c r="K428" s="28"/>
+      <c r="L428" s="28"/>
+      <c r="M428" s="28"/>
+      <c r="N428" s="28"/>
+      <c r="O428" s="28"/>
+      <c r="P428" s="28"/>
+      <c r="Q428" s="28"/>
+      <c r="R428" s="28"/>
+      <c r="S428" s="28"/>
+      <c r="T428" s="28"/>
+      <c r="U428" s="5"/>
+    </row>
+    <row r="429" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B429" s="4"/>
+      <c r="C429" s="28"/>
+      <c r="D429" s="28"/>
+      <c r="E429" s="28"/>
+      <c r="F429" s="28"/>
+      <c r="G429" s="28"/>
+      <c r="H429" s="28"/>
+      <c r="I429" s="28"/>
+      <c r="J429" s="28"/>
+      <c r="K429" s="28"/>
+      <c r="L429" s="28"/>
+      <c r="M429" s="28"/>
+      <c r="N429" s="28"/>
+      <c r="O429" s="28"/>
+      <c r="P429" s="28"/>
+      <c r="Q429" s="28"/>
+      <c r="R429" s="28"/>
+      <c r="S429" s="28"/>
+      <c r="T429" s="28"/>
+      <c r="U429" s="5"/>
+    </row>
+    <row r="430" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B430" s="4"/>
+      <c r="C430" s="28"/>
+      <c r="D430" s="28"/>
+      <c r="E430" s="28"/>
+      <c r="F430" s="28"/>
+      <c r="G430" s="28"/>
+      <c r="H430" s="28"/>
+      <c r="I430" s="28"/>
+      <c r="J430" s="28"/>
+      <c r="K430" s="28"/>
+      <c r="L430" s="28"/>
+      <c r="M430" s="28"/>
+      <c r="N430" s="28"/>
+      <c r="O430" s="28"/>
+      <c r="P430" s="28"/>
+      <c r="Q430" s="28"/>
+      <c r="R430" s="28"/>
+      <c r="S430" s="28"/>
+      <c r="T430" s="28"/>
+      <c r="U430" s="5"/>
+    </row>
+    <row r="431" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B431" s="4"/>
+      <c r="C431" s="28"/>
+      <c r="D431" s="28"/>
+      <c r="E431" s="28"/>
+      <c r="F431" s="28"/>
+      <c r="G431" s="28"/>
+      <c r="H431" s="28"/>
+      <c r="I431" s="28"/>
+      <c r="J431" s="28"/>
+      <c r="K431" s="28"/>
+      <c r="L431" s="28"/>
+      <c r="M431" s="28"/>
+      <c r="N431" s="28"/>
+      <c r="O431" s="28"/>
+      <c r="P431" s="28"/>
+      <c r="Q431" s="28"/>
+      <c r="R431" s="28"/>
+      <c r="S431" s="28"/>
+      <c r="T431" s="28"/>
+      <c r="U431" s="5"/>
+    </row>
+    <row r="432" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B432" s="4"/>
+      <c r="C432" s="28"/>
+      <c r="D432" s="28"/>
+      <c r="E432" s="28"/>
+      <c r="F432" s="28"/>
+      <c r="G432" s="28"/>
+      <c r="H432" s="28"/>
+      <c r="I432" s="28"/>
+      <c r="J432" s="28"/>
+      <c r="K432" s="28"/>
+      <c r="L432" s="28"/>
+      <c r="M432" s="28"/>
+      <c r="N432" s="28"/>
+      <c r="O432" s="28"/>
+      <c r="P432" s="28"/>
+      <c r="Q432" s="28"/>
+      <c r="R432" s="28"/>
+      <c r="S432" s="28"/>
+      <c r="T432" s="28"/>
+      <c r="U432" s="5"/>
+    </row>
+    <row r="433" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B433" s="4"/>
+      <c r="C433" s="28"/>
+      <c r="D433" s="28"/>
+      <c r="E433" s="28"/>
+      <c r="F433" s="28"/>
+      <c r="G433" s="28"/>
+      <c r="H433" s="28"/>
+      <c r="I433" s="28"/>
+      <c r="J433" s="28"/>
+      <c r="K433" s="28"/>
+      <c r="L433" s="28"/>
+      <c r="M433" s="28"/>
+      <c r="N433" s="28"/>
+      <c r="O433" s="28"/>
+      <c r="P433" s="28"/>
+      <c r="Q433" s="28"/>
+      <c r="R433" s="28"/>
+      <c r="S433" s="28"/>
+      <c r="T433" s="28"/>
+      <c r="U433" s="5"/>
+    </row>
+    <row r="434" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B434" s="4"/>
+      <c r="C434" s="28"/>
+      <c r="D434" s="28"/>
+      <c r="E434" s="28"/>
+      <c r="F434" s="28"/>
+      <c r="G434" s="28"/>
+      <c r="H434" s="28"/>
+      <c r="I434" s="28"/>
+      <c r="J434" s="28"/>
+      <c r="K434" s="28"/>
+      <c r="L434" s="28"/>
+      <c r="M434" s="28"/>
+      <c r="N434" s="28"/>
+      <c r="O434" s="28"/>
+      <c r="P434" s="28"/>
+      <c r="Q434" s="28"/>
+      <c r="R434" s="28"/>
+      <c r="S434" s="28"/>
+      <c r="T434" s="28"/>
+      <c r="U434" s="5"/>
+    </row>
+    <row r="435" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B435" s="4"/>
+      <c r="C435" s="28"/>
+      <c r="D435" s="28"/>
+      <c r="E435" s="28"/>
+      <c r="F435" s="28"/>
+      <c r="G435" s="28"/>
+      <c r="H435" s="28"/>
+      <c r="I435" s="28"/>
+      <c r="J435" s="28"/>
+      <c r="K435" s="28"/>
+      <c r="L435" s="28"/>
+      <c r="M435" s="28"/>
+      <c r="N435" s="28"/>
+      <c r="O435" s="28"/>
+      <c r="P435" s="28"/>
+      <c r="Q435" s="28"/>
+      <c r="R435" s="28"/>
+      <c r="S435" s="28"/>
+      <c r="T435" s="28"/>
+      <c r="U435" s="5"/>
+    </row>
+    <row r="436" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B436" s="4"/>
+      <c r="C436" s="28"/>
+      <c r="D436" s="28"/>
+      <c r="E436" s="28"/>
+      <c r="F436" s="28"/>
+      <c r="G436" s="28"/>
+      <c r="H436" s="28"/>
+      <c r="I436" s="28"/>
+      <c r="J436" s="28"/>
+      <c r="K436" s="28"/>
+      <c r="L436" s="28"/>
+      <c r="M436" s="28"/>
+      <c r="N436" s="28"/>
+      <c r="O436" s="28"/>
+      <c r="P436" s="28"/>
+      <c r="Q436" s="28"/>
+      <c r="R436" s="28"/>
+      <c r="S436" s="28"/>
+      <c r="T436" s="28"/>
+      <c r="U436" s="5"/>
+    </row>
+    <row r="437" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B437" s="4"/>
+      <c r="C437" s="28"/>
+      <c r="D437" s="28"/>
+      <c r="E437" s="28"/>
+      <c r="F437" s="28"/>
+      <c r="G437" s="28"/>
+      <c r="H437" s="28"/>
+      <c r="I437" s="28"/>
+      <c r="J437" s="28"/>
+      <c r="K437" s="28"/>
+      <c r="L437" s="28"/>
+      <c r="M437" s="28"/>
+      <c r="N437" s="28"/>
+      <c r="O437" s="28"/>
+      <c r="P437" s="28"/>
+      <c r="Q437" s="28"/>
+      <c r="R437" s="28"/>
+      <c r="S437" s="28"/>
+      <c r="T437" s="28"/>
+      <c r="U437" s="5"/>
+    </row>
+    <row r="438" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B438" s="7"/>
+      <c r="C438" s="8"/>
+      <c r="D438" s="8"/>
+      <c r="E438" s="8"/>
+      <c r="F438" s="8"/>
+      <c r="G438" s="8"/>
+      <c r="H438" s="8"/>
+      <c r="I438" s="8"/>
+      <c r="J438" s="8"/>
+      <c r="K438" s="8"/>
+      <c r="L438" s="8"/>
+      <c r="M438" s="8"/>
+      <c r="N438" s="8"/>
+      <c r="O438" s="8"/>
+      <c r="P438" s="8"/>
+      <c r="Q438" s="8"/>
+      <c r="R438" s="8"/>
+      <c r="S438" s="8"/>
+      <c r="T438" s="8"/>
+      <c r="U438" s="9"/>
+    </row>
+    <row r="441" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B441" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="442" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B442" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B496" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B497" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
